--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13680" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="23080" windowHeight="13640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$L$71</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,21 +30,261 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>accuracy_cortest_linear_test</t>
-  </si>
-  <si>
-    <t>accuracy_cortest_norela_test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>accuracy on linear (test) set</t>
+  </si>
+  <si>
+    <t>accuracy on norela (test) set</t>
+  </si>
+  <si>
+    <t>cor.test</t>
+  </si>
+  <si>
+    <t>deep learning</t>
+  </si>
+  <si>
+    <t>aside</t>
+  </si>
+  <si>
+    <t>pic_name</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_125_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_125_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_125_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_125_5_4.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_125_5_5.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_150_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_150_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_150_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_150_12_4.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_175_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_175_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_175_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_25_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_25_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_25_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_25_5_4.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_275_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_275_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_275_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_350_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_350_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_350_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_350_12_4.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_350_12_5.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_450_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_450_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_450_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_50_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_50_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_50_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_600_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_600_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_600_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_600_12_4.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_75_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_75_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_100_75_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_0_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_0_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_0_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_10_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_10_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_10_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_100_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_100_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_100_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_150_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_150_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_150_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_175_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_175_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_175_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_230_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_230_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_230_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_230_12_4.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_230_12_5.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_350_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_350_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_350_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_40_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_40_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_40_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_70_5_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_70_5_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_70_5_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_80_12_1.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_80_12_2.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_80_12_3.png</t>
+  </si>
+  <si>
+    <t>plot_turk2_300_80_12_4.png</t>
+  </si>
+  <si>
+    <t>human pvalue</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>human true</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>deep learning probability of no relationship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -49,12 +292,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="14"/>
@@ -65,19 +302,30 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,21 +333,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,41 +656,1627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="23.6640625" style="2"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="11"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="37" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="2:12" ht="38" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.12315694987773899</v>
+      </c>
+      <c r="J2">
+        <v>-1.25</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>IF(H2&lt;0.05, "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>IF(I2&lt;0.5, "T","F")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.94867999999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(C3+D3)/2</f>
+        <v>0.92449000000000003</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3.37797924876213E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.25</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K66" si="0">IF(H3&lt;0.05, "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L66" si="1">IF(I3&lt;0.5, "T","F")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <f>(C4+D4)/2</f>
+        <v>0.92690000000000006</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="10">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>4.17351424694061E-2</v>
+      </c>
+      <c r="J4">
+        <v>-1.25</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.28522315621375999</v>
+      </c>
+      <c r="J5">
+        <v>1.25</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="11">
+        <v>9.49729830026627E-2</v>
+      </c>
+      <c r="J6">
+        <v>-1.25</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.7674007685855001E-3</v>
+      </c>
+      <c r="J7">
+        <v>-1.5</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="I8" s="11">
+        <v>5.1981816068291697E-4</v>
+      </c>
+      <c r="J8">
+        <v>-1.5</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.97284919023513805</v>
+      </c>
+      <c r="J9">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2.7688627596944601E-5</v>
+      </c>
+      <c r="J10">
+        <v>-1.5</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.94045507907867398</v>
+      </c>
+      <c r="J11">
+        <v>-1.75</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>8.9246611878479598E-7</v>
+      </c>
+      <c r="J12">
+        <v>1.75</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2.6598435360938302E-3</v>
+      </c>
+      <c r="J13">
+        <v>-1.75</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.93587094545364402</v>
+      </c>
+      <c r="J14">
+        <v>-0.25</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.82467031478881803</v>
+      </c>
+      <c r="J15">
+        <v>-0.25</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4.7100195661187198E-3</v>
+      </c>
+      <c r="J16">
+        <v>-0.25</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.54431658983230602</v>
+      </c>
+      <c r="J17">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.82452356815338101</v>
+      </c>
+      <c r="J18">
+        <v>2.75</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.72540414333343495</v>
+      </c>
+      <c r="J19">
+        <v>-2.75</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.90657597780227706</v>
+      </c>
+      <c r="J20">
+        <v>2.75</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="I21" s="11">
+        <v>8.1275608390569704E-3</v>
+      </c>
+      <c r="J21">
+        <v>3.5</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="10">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.90727788209915206</v>
+      </c>
+      <c r="J22">
+        <v>-3.5</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="10">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.87333917617797896</v>
+      </c>
+      <c r="J23">
+        <v>-3.5</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>IF(H23&lt;0.05, "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.48288261890411399</v>
+      </c>
+      <c r="J24">
+        <v>-3.5</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I25" s="11">
+        <v>7.7466713264584501E-5</v>
+      </c>
+      <c r="J25">
+        <v>-3.5</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="10">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.96556901931762695</v>
+      </c>
+      <c r="J26">
+        <v>-4.5</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.64411270618438698</v>
+      </c>
+      <c r="J27">
+        <v>4.5</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.311752259731293</v>
+      </c>
+      <c r="J28">
+        <v>4.5</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2.4258675053715699E-2</v>
+      </c>
+      <c r="J29">
+        <v>-0.5</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.78069055080413796</v>
+      </c>
+      <c r="J30">
+        <v>-0.5</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.8014</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2.37179861869663E-4</v>
+      </c>
+      <c r="J31">
+        <v>-0.5</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.63062834739685103</v>
+      </c>
+      <c r="J32">
+        <v>-6</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.332310050725937</v>
+      </c>
+      <c r="J33">
+        <v>-6</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1.03770364075899E-2</v>
+      </c>
+      <c r="J34">
+        <v>-6</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.88237494230270397</v>
+      </c>
+      <c r="J35">
+        <v>-6</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="I36" s="11">
+        <v>8.2104004919529003E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.1235</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.97026383876800504</v>
+      </c>
+      <c r="J37">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.67504996061325095</v>
+      </c>
+      <c r="J38">
+        <v>-0.75</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.2873</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.90996128320694003</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.93062072992324796</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.92453962564468395</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.67122715711593595</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.93643009662628196</v>
+      </c>
+      <c r="J43">
+        <v>-0.1</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.88565641641616799</v>
+      </c>
+      <c r="J44">
+        <v>-0.1</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>3.3203967177541899E-5</v>
+      </c>
+      <c r="J45">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>0.90029999999999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.94867999999999997</v>
-      </c>
-      <c r="D3" s="2">
-        <f>(B3+C3)/2</f>
-        <v>0.92449000000000003</v>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.47489999999999999</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0.96545213460922197</v>
+      </c>
+      <c r="J46">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>8.5056591778993607E-3</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0.31005600094795199</v>
+      </c>
+      <c r="J48">
+        <v>-1.5</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="I49" s="11">
+        <v>7.8020209912210703E-5</v>
+      </c>
+      <c r="J49">
+        <v>1.5</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>7.0203929208219103E-3</v>
+      </c>
+      <c r="J50">
+        <v>1.5</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="10">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0.490787923336029</v>
+      </c>
+      <c r="J51">
+        <v>-1.75</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.729126036167145</v>
+      </c>
+      <c r="J52">
+        <v>1.75</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="10">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0.72893810272216797</v>
+      </c>
+      <c r="J53">
+        <v>1.75</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G54" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="10">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0.87037742137908902</v>
+      </c>
+      <c r="J54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I55" s="11">
+        <v>3.0778548680245898E-3</v>
+      </c>
+      <c r="J55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0.117805697023869</v>
+      </c>
+      <c r="J56">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0.91220271587371804</v>
+      </c>
+      <c r="J57">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>3.83284501731396E-2</v>
+      </c>
+      <c r="J58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.89981371164321899</v>
+      </c>
+      <c r="J59">
+        <v>-3.5</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G60" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0.114063255488873</v>
+      </c>
+      <c r="J60">
+        <v>3.5</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>3.38724312314298E-5</v>
+      </c>
+      <c r="J61">
+        <v>-3.5</v>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G62" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0.2964</v>
+      </c>
+      <c r="I62" s="11">
+        <v>4.2226602090522596E-6</v>
+      </c>
+      <c r="J62">
+        <v>0.4</v>
+      </c>
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="10">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0.936631739139557</v>
+      </c>
+      <c r="J63">
+        <v>0.4</v>
+      </c>
+      <c r="K63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I64" s="11">
+        <v>7.4308954179286998E-2</v>
+      </c>
+      <c r="J64">
+        <v>0.4</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G65" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="10">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0.90871173143386796</v>
+      </c>
+      <c r="J65">
+        <v>-0.7</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="I66" s="11">
+        <v>8.0207912251353299E-3</v>
+      </c>
+      <c r="J66">
+        <v>0.7</v>
+      </c>
+      <c r="K66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="10">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="I67" s="11">
+        <v>4.3581098318100003E-2</v>
+      </c>
+      <c r="J67">
+        <v>-0.7</v>
+      </c>
+      <c r="K67" s="1" t="str">
+        <f t="shared" ref="K67:K71" si="2">IF(H67&lt;0.05, "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="L67" s="1" t="str">
+        <f t="shared" ref="L67:L71" si="3">IF(I67&lt;0.5, "T","F")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0.91436326503753695</v>
+      </c>
+      <c r="J68">
+        <v>0.8</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="L68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G69" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0.108</v>
+      </c>
+      <c r="I69" s="11">
+        <v>3.4383323509246097E-5</v>
+      </c>
+      <c r="J69">
+        <v>0.8</v>
+      </c>
+      <c r="K69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="L69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G70" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="10">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0.52252817153930697</v>
+      </c>
+      <c r="J70">
+        <v>-0.8</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="L70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G71" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I71" s="11">
+        <v>7.5580426491796996E-3</v>
+      </c>
+      <c r="J71">
+        <v>0.8</v>
+      </c>
+      <c r="K71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="L71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:L71"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="23080" windowHeight="13640" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="840" windowWidth="24820" windowHeight="13640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>average</t>
   </si>
@@ -275,7 +275,16 @@
     <t>T</t>
   </si>
   <si>
+    <t>deep learning true</t>
+  </si>
+  <si>
     <t>deep learning probability of no relationship</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>same choices human dl</t>
   </si>
 </sst>
 </file>
@@ -285,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,8 +319,15 @@
       <color rgb="FF000000"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +337,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -373,12 +401,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,12 +691,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L71"/>
+  <dimension ref="B1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -673,32 +708,41 @@
     <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="11"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="10"/>
+    <col min="10" max="10" width="9.1640625" style="13" customWidth="1"/>
     <col min="11" max="12" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="23.6640625" style="1"/>
+    <col min="13" max="13" width="10.83203125"/>
+    <col min="14" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="38" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="38" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -715,13 +759,13 @@
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>0.12315694987773899</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="12">
         <v>-1.25</v>
       </c>
       <c r="K2" s="1" t="str">
@@ -732,8 +776,15 @@
         <f>IF(I2&lt;0.5, "T","F")</f>
         <v>T</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>IF(K2=L2, "T","F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -751,13 +802,13 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.10340000000000001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>3.37797924876213E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="12">
         <v>1.25</v>
       </c>
       <c r="K3" s="1" t="str">
@@ -768,8 +819,15 @@
         <f t="shared" ref="L3:L66" si="1">IF(I3&lt;0.5, "T","F")</f>
         <v>T</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" ref="N3:N66" si="2">IF(K3=L3, "T","F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -787,13 +845,13 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>4.17351424694061E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="12">
         <v>-1.25</v>
       </c>
       <c r="K4" s="1" t="str">
@@ -804,18 +862,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>0.28522315621375999</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="12">
         <v>1.25</v>
       </c>
       <c r="K5" s="1" t="str">
@@ -826,18 +891,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>9.49729830026627E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="12">
         <v>-1.25</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -848,20 +920,27 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="15">
         <v>0.46960000000000002</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="15">
         <v>1.7674007685855001E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="12">
         <v>-1.5</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -872,18 +951,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="15">
         <v>0.94030000000000002</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="15">
         <v>5.1981816068291697E-4</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="12">
         <v>-1.5</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -894,18 +980,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>0.12970000000000001</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>0.97284919023513805</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="12">
         <v>1.5</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -916,18 +1009,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>2.7688627596944601E-5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="12">
         <v>-1.5</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -938,18 +1038,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="16">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="16">
         <v>0.94045507907867398</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="12">
         <v>-1.75</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -960,18 +1067,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <v>8.9246611878479598E-7</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="12">
         <v>1.75</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -982,18 +1096,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <v>2.6598435360938302E-3</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="12">
         <v>-1.75</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1004,18 +1125,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="16">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="16">
         <v>0.93587094545364402</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="12">
         <v>-0.25</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1026,18 +1154,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>0.75649999999999995</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>0.82467031478881803</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="12">
         <v>-0.25</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1048,18 +1183,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="15">
         <v>0.54530000000000001</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="15">
         <v>4.7100195661187198E-3</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="12">
         <v>-0.25</v>
       </c>
       <c r="K16" s="1" t="str">
@@ -1070,18 +1212,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0.54431658983230602</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="12">
         <v>0.25</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -1092,18 +1241,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
         <v>0.82452356815338101</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="12">
         <v>2.75</v>
       </c>
       <c r="K18" s="1" t="str">
@@ -1114,18 +1270,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
         <v>0.72540414333343495</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="12">
         <v>-2.75</v>
       </c>
       <c r="K19" s="1" t="str">
@@ -1136,18 +1299,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f>IF(K19=L19, "T","F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
         <v>0.90657597780227706</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="12">
         <v>2.75</v>
       </c>
       <c r="K20" s="1" t="str">
@@ -1158,18 +1328,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="9">
         <v>8.1275608390569704E-3</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="12">
         <v>3.5</v>
       </c>
       <c r="K21" s="1" t="str">
@@ -1180,18 +1357,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="16">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="16">
         <v>0.90727788209915206</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="12">
         <v>-3.5</v>
       </c>
       <c r="K22" s="1" t="str">
@@ -1202,18 +1386,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="16">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="16">
         <v>0.87333917617797896</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="12">
         <v>-3.5</v>
       </c>
       <c r="K23" s="1" t="str">
@@ -1224,18 +1415,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <v>0.48288261890411399</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="12">
         <v>-3.5</v>
       </c>
       <c r="K24" s="1" t="str">
@@ -1246,18 +1444,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <v>7.7466713264584501E-5</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="12">
         <v>-3.5</v>
       </c>
       <c r="K25" s="1" t="str">
@@ -1268,18 +1473,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="16">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="16">
         <v>0.96556901931762695</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="12">
         <v>-4.5</v>
       </c>
       <c r="K26" s="1" t="str">
@@ -1290,18 +1502,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="16">
         <v>2.8E-3</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="16">
         <v>0.64411270618438698</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="12">
         <v>4.5</v>
       </c>
       <c r="K27" s="1" t="str">
@@ -1312,18 +1531,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
         <v>0.311752259731293</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="12">
         <v>4.5</v>
       </c>
       <c r="K28" s="1" t="str">
@@ -1334,18 +1560,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>0.68789999999999996</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="9">
         <v>2.4258675053715699E-2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="12">
         <v>-0.5</v>
       </c>
       <c r="K29" s="1" t="str">
@@ -1356,18 +1589,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>0.50749999999999995</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="9">
         <v>0.78069055080413796</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="12">
         <v>-0.5</v>
       </c>
       <c r="K30" s="1" t="str">
@@ -1378,18 +1618,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>0.8014</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="9">
         <v>2.37179861869663E-4</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="12">
         <v>-0.5</v>
       </c>
       <c r="K31" s="1" t="str">
@@ -1400,18 +1647,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
         <v>0.63062834739685103</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="12">
         <v>-6</v>
       </c>
       <c r="K32" s="1" t="str">
@@ -1422,18 +1676,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
         <v>0.332310050725937</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="12">
         <v>-6</v>
       </c>
       <c r="K33" s="1" t="str">
@@ -1444,18 +1705,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <v>1.03770364075899E-2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="12">
         <v>-6</v>
       </c>
       <c r="K34" s="1" t="str">
@@ -1466,18 +1734,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>0.88237494230270397</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="12">
         <v>-6</v>
       </c>
       <c r="K35" s="1" t="str">
@@ -1488,18 +1763,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9">
         <v>8.2104004919529003E-2</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="12">
         <v>0.75</v>
       </c>
       <c r="K36" s="1" t="str">
@@ -1510,18 +1792,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f>IF(K36=L36, "T","F")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>0.1235</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="9">
         <v>0.97026383876800504</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="12">
         <v>0.75</v>
       </c>
       <c r="K37" s="1" t="str">
@@ -1532,18 +1821,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="9">
         <v>0.67504996061325095</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="12">
         <v>-0.75</v>
       </c>
       <c r="K38" s="1" t="str">
@@ -1554,18 +1850,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>0.2873</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="9">
         <v>0.90996128320694003</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="14">
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -1574,18 +1877,25 @@
       <c r="L39" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>0.22550000000000001</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="9">
         <v>0.93062072992324796</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="14">
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -1594,18 +1904,25 @@
       <c r="L40" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>0.40150000000000002</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="9">
         <v>0.92453962564468395</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="14">
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -1614,18 +1931,25 @@
       <c r="L41" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>0.19120000000000001</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="9">
         <v>0.67122715711593595</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="12">
         <v>0.1</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -1636,18 +1960,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>0.80930000000000002</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="9">
         <v>0.93643009662628196</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="12">
         <v>-0.1</v>
       </c>
       <c r="K43" s="1" t="str">
@@ -1658,18 +1989,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>0.57069999999999999</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="9">
         <v>0.88565641641616799</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="12">
         <v>-0.1</v>
       </c>
       <c r="K44" s="1" t="str">
@@ -1680,18 +2018,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="10">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
         <v>3.3203967177541899E-5</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="12">
         <v>1</v>
       </c>
       <c r="K45" s="1" t="str">
@@ -1702,18 +2047,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>0.47489999999999999</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="9">
         <v>0.96545213460922197</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="12">
         <v>-1</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -1724,18 +2076,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="10">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
         <v>8.5056591778993607E-3</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="12">
         <v>1</v>
       </c>
       <c r="K47" s="1" t="str">
@@ -1746,18 +2105,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <v>0.31005600094795199</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="12">
         <v>-1.5</v>
       </c>
       <c r="K48" s="1" t="str">
@@ -1768,18 +2134,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="str">
+        <f>IF(K48=L48, "T","F")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="9">
         <v>7.8020209912210703E-5</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="12">
         <v>1.5</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -1790,18 +2163,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="10">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
         <v>7.0203929208219103E-3</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="12">
         <v>1.5</v>
       </c>
       <c r="K50" s="1" t="str">
@@ -1812,18 +2192,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="9">
         <v>0.490787923336029</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="12">
         <v>-1.75</v>
       </c>
       <c r="K51" s="1" t="str">
@@ -1834,18 +2221,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="9">
         <v>0.729126036167145</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="12">
         <v>1.75</v>
       </c>
       <c r="K52" s="1" t="str">
@@ -1856,18 +2250,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="9">
         <v>0.72893810272216797</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="12">
         <v>1.75</v>
       </c>
       <c r="K53" s="1" t="str">
@@ -1878,18 +2279,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="9">
         <v>0.87037742137908902</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="12">
         <v>2.2999999999999998</v>
       </c>
       <c r="K54" s="1" t="str">
@@ -1900,18 +2308,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G55" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="9">
         <v>3.0778548680245898E-3</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="12">
         <v>2.2999999999999998</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -1922,18 +2337,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="56" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>1.4E-3</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="9">
         <v>0.117805697023869</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="12">
         <v>-2.2999999999999998</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -1944,18 +2366,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="57" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="9">
         <v>0.91220271587371804</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="12">
         <v>-2.2999999999999998</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -1966,18 +2395,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H58" s="10">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
         <v>3.83284501731396E-2</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="12">
         <v>2.2999999999999998</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -1988,18 +2424,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="59" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H59" s="10">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
         <v>0.89981371164321899</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="12">
         <v>-3.5</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -2010,18 +2453,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="60" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G60" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
         <v>0.114063255488873</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="12">
         <v>3.5</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -2032,18 +2482,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="61" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G61" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H61" s="10">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
         <v>3.38724312314298E-5</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="12">
         <v>-3.5</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -2054,18 +2511,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="62" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G62" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>0.2964</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="9">
         <v>4.2226602090522596E-6</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="12">
         <v>0.4</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -2076,18 +2540,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="63" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G63" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="9">
         <v>0.936631739139557</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="12">
         <v>0.4</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -2098,18 +2569,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="64" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G64" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="9">
         <v>7.4308954179286998E-2</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="12">
         <v>0.4</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -2120,18 +2598,25 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="65" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G65" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="9">
         <v>0.90871173143386796</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="12">
         <v>-0.7</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -2142,18 +2627,25 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1" t="str">
+        <f>IF(K65=L65, "T","F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="66" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G66" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="9">
         <v>8.0207912251353299E-3</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="12">
         <v>0.7</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -2164,115 +2656,157 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-    </row>
-    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="67" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G67" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="9">
         <v>4.3581098318100003E-2</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="12">
         <v>-0.7</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" ref="K67:K71" si="2">IF(H67&lt;0.05, "T","F")</f>
+        <f t="shared" ref="K67:K71" si="3">IF(H67&lt;0.05, "T","F")</f>
         <v>T</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" ref="L67:L71" si="3">IF(I67&lt;0.5, "T","F")</f>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L67:L71" si="4">IF(I67&lt;0.5, "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67" s="1" t="str">
+        <f t="shared" ref="N67:N71" si="5">IF(K67=L67, "T","F")</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="68" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G68" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="9">
         <v>0.91436326503753695</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="12">
         <v>0.8</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="69" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G69" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>0.108</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="9">
         <v>3.4383323509246097E-5</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="12">
         <v>0.8</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>T</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="70" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G70" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="9">
         <v>0.52252817153930697</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="12">
         <v>-0.8</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="71" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G71" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>0.79500000000000004</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="9">
         <v>7.5580426491796996E-3</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="12">
         <v>0.8</v>
       </c>
       <c r="K71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="L71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>T</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="840" windowWidth="24820" windowHeight="13640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27340" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,23 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>accuracy on linear (test) set</t>
-  </si>
-  <si>
-    <t>accuracy on norela (test) set</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>cor.test</t>
   </si>
   <si>
-    <t>deep learning</t>
-  </si>
-  <si>
     <t>aside</t>
   </si>
   <si>
@@ -263,28 +251,61 @@
     <t>plot_turk2_300_80_12_4.png</t>
   </si>
   <si>
-    <t>human pvalue</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
-    <t>human true</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>deep learning true</t>
   </si>
   <si>
-    <t>deep learning probability of no relationship</t>
-  </si>
-  <si>
     <t>difficulty</t>
   </si>
   <si>
-    <t>same choices human dl</t>
+    <t>deep learning 5 epoch</t>
+  </si>
+  <si>
+    <t>deep learning 10 epoch</t>
+  </si>
+  <si>
+    <t>deep learning 6 epoch</t>
+  </si>
+  <si>
+    <t>deep learning 4 epoch</t>
+  </si>
+  <si>
+    <t>linear (test) set (power)</t>
+  </si>
+  <si>
+    <t>norela (test) set (1-alpha)</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t># correct</t>
+  </si>
+  <si>
+    <t>70 real plots</t>
+  </si>
+  <si>
+    <t>cor.t pvalue</t>
+  </si>
+  <si>
+    <t>cor.t true</t>
+  </si>
+  <si>
+    <t>dl prob of norela</t>
   </si>
 </sst>
 </file>
@@ -294,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +346,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -380,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -392,9 +418,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,6 +437,28 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,81 +736,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N71"/>
+  <dimension ref="B1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="10"/>
-    <col min="10" max="10" width="9.1640625" style="13" customWidth="1"/>
-    <col min="11" max="12" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125"/>
+    <col min="7" max="7" width="35.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
     <col min="14" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="38" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="E2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="38" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8">
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>0.12315694987773899</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>-1.25</v>
       </c>
       <c r="K2" s="1" t="str">
@@ -779,36 +822,32 @@
       <c r="M2">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="str">
-        <f>IF(K2=L2, "T","F")</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
         <v>0.90029999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="17">
         <v>0.94867999999999997</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="16">
         <f>(C3+D3)/2</f>
         <v>0.92449000000000003</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8">
         <v>0.10340000000000001</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>3.37797924876213E-2</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>1.25</v>
       </c>
       <c r="K3" s="1" t="str">
@@ -822,36 +861,32 @@
       <c r="M3">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N66" si="2">IF(K3=L3, "T","F")</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+        <v>77</v>
+      </c>
+      <c r="C4" s="16">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="16">
         <v>0.97119999999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="16">
         <f>(C4+D4)/2</f>
         <v>0.92690000000000006</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>4.17351424694061E-2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>-1.25</v>
       </c>
       <c r="K4" s="1" t="str">
@@ -865,22 +900,30 @@
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.96872499999999995</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.92567500000000003</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.28522315621375999</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>1.25</v>
       </c>
       <c r="K5" s="1" t="str">
@@ -894,22 +937,26 @@
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="9">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>0.95684999999999998</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>9.49729830026627E-2</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>-1.25</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -923,24 +970,26 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="15">
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14">
         <v>0.46960000000000002</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>1.7674007685855001E-3</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>-1.5</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -954,22 +1003,31 @@
       <c r="M7">
         <v>3</v>
       </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="15">
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.87897499999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.97565000000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <f>(C8+D8)/2</f>
+        <v>0.92731249999999998</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14">
         <v>0.94030000000000002</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>5.1981816068291697E-4</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>-1.5</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -983,22 +1041,18 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="9">
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
         <v>0.12970000000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.97284919023513805</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>1.5</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -1012,22 +1066,18 @@
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="9">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>2.7688627596944601E-5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>-1.5</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -1041,22 +1091,30 @@
       <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="16">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="15">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>0.94045507907867398</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>-1.75</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1070,22 +1128,31 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12/D12</f>
+        <v>0.67142857142857137</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
         <v>8.9246611878479598E-7</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>1.75</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1099,22 +1166,31 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1">
+        <f>C13/D13</f>
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="8">
         <v>1E-4</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>2.6598435360938302E-3</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>-1.75</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1128,22 +1204,31 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="16">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C14/D14</f>
+        <v>0.61428571428571432</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="15">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>0.93587094545364402</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>-0.25</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1157,22 +1242,18 @@
       <c r="M14">
         <v>4</v>
       </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="9">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8">
         <v>0.75649999999999995</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>0.82467031478881803</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>-0.25</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1186,22 +1267,18 @@
       <c r="M15">
         <v>4</v>
       </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="15">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="14">
         <v>0.54530000000000001</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>4.7100195661187198E-3</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>-0.25</v>
       </c>
       <c r="K16" s="1" t="str">
@@ -1215,22 +1292,18 @@
       <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="9">
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>0.54431658983230602</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.25</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -1244,22 +1317,18 @@
       <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
         <v>0.82452356815338101</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>2.75</v>
       </c>
       <c r="K18" s="1" t="str">
@@ -1273,22 +1342,18 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
         <v>0.72540414333343495</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>-2.75</v>
       </c>
       <c r="K19" s="1" t="str">
@@ -1302,22 +1367,18 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="str">
-        <f>IF(K19=L19, "T","F")</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
         <v>0.90657597780227706</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>2.75</v>
       </c>
       <c r="K20" s="1" t="str">
@@ -1331,22 +1392,18 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="9">
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>8.1275608390569704E-3</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>3.5</v>
       </c>
       <c r="K21" s="1" t="str">
@@ -1360,22 +1417,18 @@
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="16">
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="15">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>0.90727788209915206</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>-3.5</v>
       </c>
       <c r="K22" s="1" t="str">
@@ -1389,22 +1442,18 @@
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="N22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="16">
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="15">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>0.87333917617797896</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>-3.5</v>
       </c>
       <c r="K23" s="1" t="str">
@@ -1418,22 +1467,18 @@
       <c r="M23">
         <v>2</v>
       </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="9">
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>0.48288261890411399</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <v>-3.5</v>
       </c>
       <c r="K24" s="1" t="str">
@@ -1447,22 +1492,18 @@
       <c r="M24">
         <v>2</v>
       </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="9">
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="8">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>7.7466713264584501E-5</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>-3.5</v>
       </c>
       <c r="K25" s="1" t="str">
@@ -1476,22 +1517,18 @@
       <c r="M25">
         <v>2</v>
       </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="16">
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="15">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <v>0.96556901931762695</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <v>-4.5</v>
       </c>
       <c r="K26" s="1" t="str">
@@ -1505,22 +1542,18 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="16">
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="15">
         <v>2.8E-3</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="15">
         <v>0.64411270618438698</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>4.5</v>
       </c>
       <c r="K27" s="1" t="str">
@@ -1534,22 +1567,18 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
         <v>0.311752259731293</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>4.5</v>
       </c>
       <c r="K28" s="1" t="str">
@@ -1563,22 +1592,18 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="9">
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="8">
         <v>0.68789999999999996</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>2.4258675053715699E-2</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>-0.5</v>
       </c>
       <c r="K29" s="1" t="str">
@@ -1592,22 +1617,18 @@
       <c r="M29">
         <v>4</v>
       </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="9">
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="8">
         <v>0.50749999999999995</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>0.78069055080413796</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>-0.5</v>
       </c>
       <c r="K30" s="1" t="str">
@@ -1621,22 +1642,18 @@
       <c r="M30">
         <v>4</v>
       </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="9">
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8">
         <v>0.8014</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>2.37179861869663E-4</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>-0.5</v>
       </c>
       <c r="K31" s="1" t="str">
@@ -1650,138 +1667,118 @@
       <c r="M31">
         <v>4</v>
       </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="7" t="s">
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.63062834739685103</v>
+      </c>
+      <c r="J32" s="11">
+        <v>-6</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.332310050725937</v>
+      </c>
+      <c r="J33" s="11">
+        <v>-6</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1.03770364075899E-2</v>
+      </c>
+      <c r="J34" s="11">
+        <v>-6</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.88237494230270397</v>
+      </c>
+      <c r="J35" s="11">
+        <v>-6</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.63062834739685103</v>
-      </c>
-      <c r="J32" s="12">
-        <v>-6</v>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0.332310050725937</v>
-      </c>
-      <c r="J33" s="12">
-        <v>-6</v>
-      </c>
-      <c r="K33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1.03770364075899E-2</v>
-      </c>
-      <c r="J34" s="12">
-        <v>-6</v>
-      </c>
-      <c r="K34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.88237494230270397</v>
-      </c>
-      <c r="J35" s="12">
-        <v>-6</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>8.2104004919529003E-2</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>0.75</v>
       </c>
       <c r="K36" s="1" t="str">
@@ -1795,22 +1792,18 @@
       <c r="M36">
         <v>3</v>
       </c>
-      <c r="N36" s="1" t="str">
-        <f>IF(K36=L36, "T","F")</f>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="9">
+    </row>
+    <row r="37" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="8">
         <v>0.1235</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>0.97026383876800504</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="11">
         <v>0.75</v>
       </c>
       <c r="K37" s="1" t="str">
@@ -1824,22 +1817,18 @@
       <c r="M37">
         <v>3</v>
       </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="9">
+    </row>
+    <row r="38" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="8">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <v>0.67504996061325095</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <v>-0.75</v>
       </c>
       <c r="K38" s="1" t="str">
@@ -1853,103 +1842,87 @@
       <c r="M38">
         <v>3</v>
       </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="9">
+    </row>
+    <row r="39" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="8">
         <v>0.2873</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>0.90996128320694003</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="9">
+    </row>
+    <row r="40" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="8">
         <v>0.22550000000000001</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>0.93062072992324796</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="9">
+    </row>
+    <row r="41" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="8">
         <v>0.40150000000000002</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>0.92453962564468395</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="9">
+    </row>
+    <row r="42" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="8">
         <v>0.19120000000000001</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>0.67122715711593595</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="11">
         <v>0.1</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -1963,22 +1936,18 @@
       <c r="M42">
         <v>4</v>
       </c>
-      <c r="N42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="9">
+    </row>
+    <row r="43" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="8">
         <v>0.80930000000000002</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <v>0.93643009662628196</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="11">
         <v>-0.1</v>
       </c>
       <c r="K43" s="1" t="str">
@@ -1992,22 +1961,18 @@
       <c r="M43">
         <v>4</v>
       </c>
-      <c r="N43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G44" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="9">
+    </row>
+    <row r="44" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="8">
         <v>0.57069999999999999</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <v>0.88565641641616799</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="11">
         <v>-0.1</v>
       </c>
       <c r="K44" s="1" t="str">
@@ -2021,22 +1986,18 @@
       <c r="M44">
         <v>4</v>
       </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
+    </row>
+    <row r="45" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
         <v>3.3203967177541899E-5</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <v>1</v>
       </c>
       <c r="K45" s="1" t="str">
@@ -2050,22 +2011,18 @@
       <c r="M45">
         <v>1</v>
       </c>
-      <c r="N45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="9">
+    </row>
+    <row r="46" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="8">
         <v>0.47489999999999999</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>0.96545213460922197</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <v>-1</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -2079,22 +2036,18 @@
       <c r="M46">
         <v>1</v>
       </c>
-      <c r="N46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
+    </row>
+    <row r="47" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8">
         <v>8.5056591778993607E-3</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <v>1</v>
       </c>
       <c r="K47" s="1" t="str">
@@ -2108,22 +2061,18 @@
       <c r="M47">
         <v>1</v>
       </c>
-      <c r="N47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="9">
+    </row>
+    <row r="48" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <v>0.31005600094795199</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <v>-1.5</v>
       </c>
       <c r="K48" s="1" t="str">
@@ -2137,22 +2086,18 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" s="1" t="str">
-        <f>IF(K48=L48, "T","F")</f>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="9">
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="8">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="8">
         <v>7.8020209912210703E-5</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <v>1.5</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -2166,22 +2111,18 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
         <v>7.0203929208219103E-3</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="11">
         <v>1.5</v>
       </c>
       <c r="K50" s="1" t="str">
@@ -2195,22 +2136,18 @@
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G51" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" s="9">
+    </row>
+    <row r="51" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="8">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <v>0.490787923336029</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="11">
         <v>-1.75</v>
       </c>
       <c r="K51" s="1" t="str">
@@ -2224,22 +2161,18 @@
       <c r="M51">
         <v>2</v>
       </c>
-      <c r="N51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G52" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="9">
+    </row>
+    <row r="52" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="8">
         <v>1E-4</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <v>0.729126036167145</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="11">
         <v>1.75</v>
       </c>
       <c r="K52" s="1" t="str">
@@ -2253,22 +2186,18 @@
       <c r="M52">
         <v>2</v>
       </c>
-      <c r="N52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G53" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="9">
+    </row>
+    <row r="53" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="8">
         <v>0.72893810272216797</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="11">
         <v>1.75</v>
       </c>
       <c r="K53" s="1" t="str">
@@ -2282,22 +2211,18 @@
       <c r="M53">
         <v>2</v>
       </c>
-      <c r="N53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G54" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" s="9">
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="8">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <v>0.87037742137908902</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="K54" s="1" t="str">
@@ -2311,22 +2236,18 @@
       <c r="M54">
         <v>1</v>
       </c>
-      <c r="N54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G55" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" s="9">
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="8">
         <v>3.0778548680245898E-3</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -2340,22 +2261,18 @@
       <c r="M55">
         <v>1</v>
       </c>
-      <c r="N55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="56" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H56" s="9">
+    </row>
+    <row r="56" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="8">
         <v>1.4E-3</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="8">
         <v>0.117805697023869</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="11">
         <v>-2.2999999999999998</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -2369,22 +2286,18 @@
       <c r="M56">
         <v>1</v>
       </c>
-      <c r="N56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="57" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G57" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="9">
+    </row>
+    <row r="57" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="8">
         <v>1E-4</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="8">
         <v>0.91220271587371804</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>-2.2999999999999998</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -2398,22 +2311,18 @@
       <c r="M57">
         <v>1</v>
       </c>
-      <c r="N57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9">
+    </row>
+    <row r="58" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
         <v>3.83284501731396E-2</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -2427,22 +2336,18 @@
       <c r="M58">
         <v>1</v>
       </c>
-      <c r="N58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="59" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9">
+    </row>
+    <row r="59" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
         <v>0.89981371164321899</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>-3.5</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -2456,22 +2361,18 @@
       <c r="M59">
         <v>0</v>
       </c>
-      <c r="N59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="60" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9">
+    </row>
+    <row r="60" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
         <v>0.114063255488873</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="11">
         <v>3.5</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -2485,22 +2386,18 @@
       <c r="M60">
         <v>0</v>
       </c>
-      <c r="N60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="61" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G61" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
+    </row>
+    <row r="61" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G61" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
         <v>3.38724312314298E-5</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="11">
         <v>-3.5</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -2514,22 +2411,18 @@
       <c r="M61">
         <v>0</v>
       </c>
-      <c r="N61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="62" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G62" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="9">
+    </row>
+    <row r="62" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G62" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="8">
         <v>0.2964</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="8">
         <v>4.2226602090522596E-6</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="11">
         <v>0.4</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -2543,22 +2436,18 @@
       <c r="M62">
         <v>3</v>
       </c>
-      <c r="N62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="63" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G63" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="9">
+    </row>
+    <row r="63" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G63" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="8">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="8">
         <v>0.936631739139557</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="11">
         <v>0.4</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -2572,22 +2461,18 @@
       <c r="M63">
         <v>3</v>
       </c>
-      <c r="N63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="64" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G64" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" s="9">
+    </row>
+    <row r="64" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G64" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="8">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="8">
         <v>7.4308954179286998E-2</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="11">
         <v>0.4</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -2601,22 +2486,18 @@
       <c r="M64">
         <v>3</v>
       </c>
-      <c r="N64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="65" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G65" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="9">
+    </row>
+    <row r="65" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G65" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="8">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="8">
         <v>0.90871173143386796</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="11">
         <v>-0.7</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -2630,22 +2511,18 @@
       <c r="M65">
         <v>2</v>
       </c>
-      <c r="N65" s="1" t="str">
-        <f>IF(K65=L65, "T","F")</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="66" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G66" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H66" s="9">
+    </row>
+    <row r="66" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G66" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66" s="8">
         <v>1E-4</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <v>8.0207912251353299E-3</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="11">
         <v>0.7</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -2659,154 +2536,130 @@
       <c r="M66">
         <v>2</v>
       </c>
-      <c r="N66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="67" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G67" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="9">
+    </row>
+    <row r="67" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="8">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="8">
         <v>4.3581098318100003E-2</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="11">
         <v>-0.7</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" ref="K67:K71" si="3">IF(H67&lt;0.05, "T","F")</f>
+        <f t="shared" ref="K67:K71" si="2">IF(H67&lt;0.05, "T","F")</f>
         <v>T</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" ref="L67:L71" si="4">IF(I67&lt;0.5, "T","F")</f>
+        <f t="shared" ref="L67:L71" si="3">IF(I67&lt;0.5, "T","F")</f>
         <v>T</v>
       </c>
       <c r="M67">
         <v>2</v>
       </c>
-      <c r="N67" s="1" t="str">
-        <f t="shared" ref="N67:N71" si="5">IF(K67=L67, "T","F")</f>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="68" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G68" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="9">
+    </row>
+    <row r="68" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="8">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="8">
         <v>0.91436326503753695</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="11">
         <v>0.8</v>
       </c>
       <c r="K68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="L68" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="L68" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="M68">
         <v>3</v>
       </c>
-      <c r="N68" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="69" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G69" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69" s="9">
+    </row>
+    <row r="69" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G69" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="8">
         <v>0.108</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="8">
         <v>3.4383323509246097E-5</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="11">
         <v>0.8</v>
       </c>
       <c r="K69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="L69" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="L69" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="M69">
         <v>3</v>
       </c>
-      <c r="N69" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="70" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G70" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H70" s="9">
+    </row>
+    <row r="70" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G70" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" s="8">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="8">
         <v>0.52252817153930697</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="11">
         <v>-0.8</v>
       </c>
       <c r="K70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="L70" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="L70" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="M70">
         <v>3</v>
       </c>
-      <c r="N70" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="71" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G71" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" s="9">
+    </row>
+    <row r="71" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G71" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="8">
         <v>0.79500000000000004</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="8">
         <v>7.5580426491796996E-3</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="11">
         <v>0.8</v>
       </c>
       <c r="K71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="L71" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="L71" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="M71">
         <v>3</v>
-      </c>
-      <c r="N71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="27320" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="4080" yWindow="520" windowWidth="27320" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>cor.test</t>
   </si>
@@ -327,24 +327,43 @@
     <t>white.test 0.05</t>
   </si>
   <si>
-    <t>white.test 0.02435  20w</t>
-  </si>
-  <si>
-    <t>white.test 0.05 20w</t>
-  </si>
-  <si>
     <t>deep learning 7 epoch</t>
   </si>
   <si>
     <t>deep learning 8 epoch</t>
+  </si>
+  <si>
+    <t>linear train</t>
+  </si>
+  <si>
+    <t>heter (test) set (power)</t>
+  </si>
+  <si>
+    <t>linear (test) set (1-alpha)</t>
+  </si>
+  <si>
+    <t>heter train</t>
+  </si>
+  <si>
+    <t>heter validation</t>
+  </si>
+  <si>
+    <t>linear validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white.test </t>
+  </si>
+  <si>
+    <t>averaged accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -444,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -507,13 +526,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
@@ -2838,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2849,77 +2865,136 @@
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="26">
+        <v>0.85634999999999994</v>
+      </c>
+      <c r="D3" s="26">
+        <f>1-0.045125</f>
+        <v>0.95487500000000003</v>
+      </c>
+      <c r="E3" s="27">
+        <f>(C3+D3)/2</f>
+        <v>0.90561249999999993</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.85309000000000001</v>
+      </c>
+      <c r="G3" s="26">
+        <f>1-0.04888</f>
+        <v>0.95111999999999997</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.85775000000000001</v>
+      </c>
+      <c r="I3" s="26">
+        <f>1-0.049225</f>
+        <v>0.95077500000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="520" windowWidth="27320" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="27320" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -2857,7 +2857,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2866,6 +2866,7 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -2899,16 +2900,10 @@
         <v>97</v>
       </c>
       <c r="C3" s="26">
-        <v>0.85634999999999994</v>
-      </c>
-      <c r="D3" s="26">
-        <f>1-0.045125</f>
-        <v>0.95487500000000003</v>
-      </c>
-      <c r="E3" s="27">
-        <f>(C3+D3)/2</f>
-        <v>0.90561249999999993</v>
-      </c>
+        <v>0.85765000000000002</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="26">
         <v>0.85309000000000001</v>
       </c>
@@ -2916,13 +2911,8 @@
         <f>1-0.04888</f>
         <v>0.95111999999999997</v>
       </c>
-      <c r="H3" s="26">
-        <v>0.85775000000000001</v>
-      </c>
-      <c r="I3" s="26">
-        <f>1-0.049225</f>
-        <v>0.95077500000000004</v>
-      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="27320" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3080" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>cor.test</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>averaged accuracy</t>
+  </si>
+  <si>
+    <t>deep learning 9 epoch</t>
   </si>
 </sst>
 </file>
@@ -2854,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2902,8 +2905,14 @@
       <c r="C3" s="26">
         <v>0.85765000000000002</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="26">
+        <f>1-0.047325</f>
+        <v>0.95267500000000005</v>
+      </c>
+      <c r="E3" s="27">
+        <f>(C3+D3)/2</f>
+        <v>0.90516250000000009</v>
+      </c>
       <c r="F3" s="26">
         <v>0.85309000000000001</v>
       </c>
@@ -2911,8 +2920,13 @@
         <f>1-0.04888</f>
         <v>0.95111999999999997</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="H3" s="26">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="I3" s="26">
+        <f>1-0.049675</f>
+        <v>0.95032499999999998</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -2986,6 +3000,16 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
     </row>
+    <row r="10" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2260" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
     <sheet name="heter" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">linear!$G$1:$M$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">linear!$G$1:$M$74</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>cor.test</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>deep learning 9 epoch</t>
+  </si>
+  <si>
+    <t>cor.test 0.02 20w</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -533,6 +536,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,12 +825,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O73"/>
+  <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -907,16 +920,16 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="31">
         <v>0.90029999999999999</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="31">
         <v>0.94867999999999997</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="17">
         <f>(C3+D3)/2</f>
         <v>0.92449000000000003</v>
       </c>
@@ -935,11 +948,11 @@
         <v>1.25</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f t="shared" ref="L3:L68" si="0">IF(H3&lt;0.05, "T","F")</f>
+        <f t="shared" ref="L3:L69" si="0">IF(H3&lt;0.05, "T","F")</f>
         <v>F</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N68" si="1">IF(J3&lt;0.05, "T", "F")</f>
+        <f t="shared" ref="N3:N69" si="1">IF(J3&lt;0.05, "T", "F")</f>
         <v>F</v>
       </c>
       <c r="O3">
@@ -985,74 +998,54 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.88260000000000005</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.97119999999999995</v>
-      </c>
-      <c r="E6" s="13">
-        <f>(C6+D6)/2</f>
-        <v>0.92690000000000006</v>
+      <c r="B6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0.93030000000000002</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>8.8700000000000001E-2</v>
-      </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>-1.25</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="13">
         <v>0.88260000000000005</v>
       </c>
       <c r="D7" s="13">
-        <v>0.96872499999999995</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="E7" s="13">
-        <v>0.92567500000000003</v>
-      </c>
+        <f>(C7+D7)/2</f>
+        <v>0.92690000000000006</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="25">
-        <v>6.9999999999999999E-4</v>
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="10">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1063,31 +1056,30 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0.89097499999999996</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.95684999999999998</v>
-      </c>
-      <c r="E8" s="17">
-        <f>(C8+D8)/2</f>
-        <v>0.92391249999999991</v>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.96872499999999995</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.92567500000000003</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="25">
-        <v>3.0000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8">
         <v>0</v>
       </c>
       <c r="K8" s="10">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1102,50 +1094,63 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.87897499999999995</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.97565000000000002</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="B9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.89097499999999996</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.95684999999999998</v>
+      </c>
+      <c r="E9" s="17">
         <f>(C9+D9)/2</f>
-        <v>0.92731249999999998</v>
+        <v>0.92391249999999991</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="25">
-        <v>0.46960000000000002</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="10">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.87897499999999995</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.97565000000000002</v>
+      </c>
+      <c r="E10" s="24">
+        <f>(C10+D10)/2</f>
+        <v>0.92731249999999998</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="25">
-        <v>0.94030000000000002</v>
+        <v>0.46960000000000002</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8">
@@ -1168,17 +1173,17 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="25">
-        <v>0.12970000000000001</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8">
-        <v>0.81572080405219205</v>
+        <v>1</v>
       </c>
       <c r="K11" s="10">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1194,55 +1199,43 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="25">
-        <v>4.5199999999999997E-2</v>
+        <v>0.12970000000000001</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8">
-        <v>3.6182484510458601E-3</v>
+        <v>0.81572080405219205</v>
       </c>
       <c r="K12" s="10">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="25">
-        <v>5.9999999999999995E-4</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8">
-        <v>0</v>
+        <v>3.6182484510458601E-3</v>
       </c>
       <c r="K13" s="10">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1253,35 +1246,34 @@
         <v>T</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="1">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1">
-        <v>70</v>
-      </c>
-      <c r="E14" s="1">
-        <f>C14/D14</f>
-        <v>0.67142857142857137</v>
+        <v>91</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="25">
-        <v>0</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8">
         <v>0</v>
       </c>
       <c r="K14" s="10">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1297,30 +1289,30 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>70</v>
       </c>
       <c r="E15" s="1">
         <f>C15/D15</f>
-        <v>0.62857142857142856</v>
+        <v>0.67142857142857137</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="25">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8">
         <v>0</v>
       </c>
       <c r="K15" s="10">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1336,30 +1328,30 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>70</v>
       </c>
       <c r="E16" s="1">
         <f>C16/D16</f>
-        <v>0.61428571428571432</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="25">
-        <v>3.5999999999999999E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8">
         <v>0</v>
       </c>
       <c r="K16" s="10">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1370,41 +1362,54 @@
         <v>T</v>
       </c>
       <c r="O16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1">
+        <f>C17/D17</f>
+        <v>0.61428571428571432</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="25">
-        <v>0.75649999999999995</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="10">
         <v>-0.25</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="25">
-        <v>0.54530000000000001</v>
+        <v>0.75649999999999995</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8">
@@ -1425,19 +1430,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="25">
-        <v>0.46899999999999997</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8">
         <v>1</v>
       </c>
       <c r="K19" s="10">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1451,35 +1456,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="25">
-        <v>0</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="10">
-        <v>2.75</v>
+        <v>0.25</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>1-D10</f>
+        <v>2.4349999999999983E-2</v>
+      </c>
       <c r="G21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="25">
         <v>0</v>
@@ -1489,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="10">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1503,9 +1512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="25">
         <v>0</v>
@@ -1515,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="10">
-        <v>2.75</v>
+        <v>-2.75</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1529,45 +1538,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="25">
-        <v>5.3900000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8">
-        <v>0.60495147368688595</v>
+        <v>0</v>
       </c>
       <c r="K23" s="10">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="25">
-        <v>5.1400000000000001E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8">
-        <v>5.1801169946540399E-3</v>
+        <v>0.60495147368688595</v>
       </c>
       <c r="K24" s="10">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1575,28 +1584,28 @@
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="25">
-        <v>8.0199999999999994E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8">
-        <v>1.9205859125293E-11</v>
+        <v>5.1801169946540399E-3</v>
       </c>
       <c r="K25" s="10">
         <v>-3.5</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f>IF(H25&lt;0.05, "T","F")</f>
+        <f t="shared" si="0"/>
         <v>F</v>
       </c>
       <c r="N25" s="1" t="str">
@@ -1607,23 +1616,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="25">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8">
-        <v>0</v>
+        <v>1.9205859125293E-11</v>
       </c>
       <c r="K26" s="10">
         <v>-3.5</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
+        <f>IF(H26&lt;0.05, "T","F")</f>
+        <v>F</v>
       </c>
       <c r="N26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1633,12 +1642,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="25">
-        <v>4.0000000000000002E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8">
@@ -1659,19 +1668,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="25">
-        <v>6.1000000000000004E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8">
         <v>0</v>
       </c>
       <c r="K28" s="10">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1682,22 +1691,22 @@
         <v>T</v>
       </c>
       <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="25">
-        <v>2.8E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8">
         <v>0</v>
       </c>
       <c r="K29" s="10">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1711,12 +1720,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="25">
-        <v>0</v>
+        <v>2.8E-3</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8">
@@ -1737,38 +1746,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" s="25">
-        <v>0.68789999999999996</v>
+        <v>0</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="10">
-        <v>-0.5</v>
+        <v>4.5</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="25">
-        <v>0.50749999999999995</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8">
@@ -1791,10 +1800,10 @@
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33" s="25">
-        <v>0.8014</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8">
@@ -1817,33 +1826,33 @@
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="25">
-        <v>0</v>
+        <v>0.8014</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="10">
-        <v>-6</v>
+        <v>-0.5</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" s="25">
         <v>0</v>
@@ -1869,7 +1878,7 @@
     </row>
     <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36" s="25">
         <v>0</v>
@@ -1895,7 +1904,7 @@
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="25">
         <v>0</v>
@@ -1921,17 +1930,17 @@
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="25">
-        <v>8.9999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8">
         <v>0</v>
       </c>
       <c r="K38" s="10">
-        <v>0.75</v>
+        <v>-6</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1942,30 +1951,30 @@
         <v>T</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="25">
-        <v>0.1235</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="10">
         <v>0.75</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O39">
         <v>3</v>
@@ -1973,17 +1982,17 @@
     </row>
     <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="25">
-        <v>0.90300000000000002</v>
+        <v>0.1235</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8">
         <v>1</v>
       </c>
       <c r="K40" s="10">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1999,38 +2008,40 @@
     </row>
     <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="25">
-        <v>0.2873</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8">
-        <v>0.87148784343489705</v>
-      </c>
-      <c r="K41" s="12">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="K41" s="10">
+        <v>-0.75</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="25">
-        <v>0.22550000000000001</v>
+        <v>0.2873</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8">
-        <v>1</v>
+        <v>0.87148784343489705</v>
       </c>
       <c r="K42" s="12">
         <v>0</v>
@@ -2047,10 +2058,10 @@
     </row>
     <row r="43" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43" s="25">
-        <v>0.40150000000000002</v>
+        <v>0.22550000000000001</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8">
@@ -2071,25 +2082,23 @@
     </row>
     <row r="44" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G44" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44" s="25">
-        <v>0.19120000000000001</v>
+        <v>0.40150000000000002</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8">
         <v>1</v>
       </c>
-      <c r="K44" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="O44">
         <v>4</v>
@@ -2097,17 +2106,17 @@
     </row>
     <row r="45" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H45" s="25">
-        <v>0.80930000000000002</v>
+        <v>0.19120000000000001</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8">
         <v>1</v>
       </c>
       <c r="K45" s="10">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2123,10 +2132,10 @@
     </row>
     <row r="46" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46" s="25">
-        <v>0.57069999999999999</v>
+        <v>0.80930000000000002</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8">
@@ -2149,51 +2158,51 @@
     </row>
     <row r="47" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" s="25">
-        <v>0</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="10">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" s="25">
-        <v>0.47489999999999999</v>
+        <v>0</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2201,25 +2210,25 @@
     </row>
     <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H49" s="25">
-        <v>0</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2227,17 +2236,17 @@
     </row>
     <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" s="25">
-        <v>1.2999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8">
         <v>0</v>
       </c>
       <c r="K50" s="10">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2248,22 +2257,22 @@
         <v>T</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" s="25">
-        <v>6.7000000000000002E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8">
         <v>0</v>
       </c>
       <c r="K51" s="10">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2279,10 +2288,10 @@
     </row>
     <row r="52" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H52" s="25">
-        <v>0</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8">
@@ -2305,50 +2314,50 @@
     </row>
     <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" s="25">
-        <v>3.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8">
         <v>0</v>
       </c>
       <c r="K53" s="10">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="N53" s="1" t="str">
-        <f>IF(J53&lt;0.05, "T", "F")</f>
+        <f t="shared" si="1"/>
         <v>T</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54" s="25">
-        <v>1E-4</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8">
         <v>0</v>
       </c>
       <c r="K54" s="10">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="L54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="N54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(J54&lt;0.05, "T", "F")</f>
         <v>T</v>
       </c>
       <c r="O54">
@@ -2357,10 +2366,10 @@
     </row>
     <row r="55" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H55" s="25">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8">
@@ -2383,17 +2392,17 @@
     </row>
     <row r="56" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56" s="25">
-        <v>3.1699999999999999E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8">
-        <v>0.19690285527460399</v>
+        <v>0</v>
       </c>
       <c r="K56" s="10">
-        <v>2.2999999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="L56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2401,22 +2410,22 @@
       </c>
       <c r="N56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G57" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="8">
-        <v>1.6999999999999999E-3</v>
+        <v>55</v>
+      </c>
+      <c r="H57" s="25">
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8">
-        <v>0</v>
+        <v>0.19690285527460399</v>
       </c>
       <c r="K57" s="10">
         <v>2.2999999999999998</v>
@@ -2427,7 +2436,7 @@
       </c>
       <c r="N57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -2435,17 +2444,17 @@
     </row>
     <row r="58" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58" s="8">
-        <v>1.4E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8">
         <v>0</v>
       </c>
       <c r="K58" s="10">
-        <v>-2.2999999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2461,10 +2470,10 @@
     </row>
     <row r="59" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H59" s="8">
-        <v>1E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8">
@@ -2487,17 +2496,17 @@
     </row>
     <row r="60" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H60" s="8">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8">
         <v>0</v>
       </c>
       <c r="K60" s="10">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="L60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2513,7 +2522,7 @@
     </row>
     <row r="61" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G61" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="8">
         <v>0</v>
@@ -2523,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>-3.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2534,12 +2543,12 @@
         <v>T</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H62" s="8">
         <v>0</v>
@@ -2549,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="10">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2565,7 +2574,7 @@
     </row>
     <row r="63" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G63" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H63" s="8">
         <v>0</v>
@@ -2575,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="10">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="L63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2591,40 +2600,40 @@
     </row>
     <row r="64" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H64" s="8">
-        <v>0.2964</v>
+        <v>0</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="10">
-        <v>0.4</v>
+        <v>-3.5</v>
       </c>
       <c r="L64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H65" s="8">
-        <v>8.9499999999999996E-2</v>
+        <v>0.2964</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8">
-        <v>1.99834865548976E-4</v>
+        <v>1</v>
       </c>
       <c r="K65" s="10">
         <v>0.4</v>
@@ -2635,7 +2644,7 @@
       </c>
       <c r="N65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O65">
         <v>3</v>
@@ -2643,14 +2652,14 @@
     </row>
     <row r="66" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G66" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" s="8">
-        <v>0.35199999999999998</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8">
-        <v>1</v>
+        <v>1.99834865548976E-4</v>
       </c>
       <c r="K66" s="10">
         <v>0.4</v>
@@ -2661,7 +2670,7 @@
       </c>
       <c r="N66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O66">
         <v>3</v>
@@ -2669,43 +2678,43 @@
     </row>
     <row r="67" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G67" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="8">
-        <v>2.3400000000000001E-2</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="10">
-        <v>-0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L67" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G68" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H68" s="8">
-        <v>1E-4</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8">
         <v>0</v>
       </c>
       <c r="K68" s="10">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="L68" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2721,24 +2730,24 @@
     </row>
     <row r="69" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G69" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H69" s="8">
-        <v>3.4200000000000001E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8">
         <v>0</v>
       </c>
       <c r="K69" s="10">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" ref="L69:L73" si="2">IF(H69&lt;0.05, "T","F")</f>
+        <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="N69" s="1" t="str">
-        <f t="shared" ref="N69:N72" si="3">IF(J69&lt;0.05, "T", "F")</f>
+        <f t="shared" si="1"/>
         <v>T</v>
       </c>
       <c r="O69">
@@ -2747,51 +2756,51 @@
     </row>
     <row r="70" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G70" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H70" s="8">
-        <v>1.1999999999999999E-3</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8">
         <v>0</v>
       </c>
       <c r="K70" s="10">
-        <v>0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L70:L74" si="2">IF(H70&lt;0.05, "T","F")</f>
         <v>T</v>
       </c>
       <c r="N70" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N70:N73" si="3">IF(J70&lt;0.05, "T", "F")</f>
         <v>T</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G71" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H71" s="8">
-        <v>0.108</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8">
-        <v>0.82274644839770195</v>
+        <v>0</v>
       </c>
       <c r="K71" s="10">
         <v>0.8</v>
       </c>
       <c r="L71" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N71" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O71">
         <v>3</v>
@@ -2799,17 +2808,17 @@
     </row>
     <row r="72" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G72" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H72" s="8">
-        <v>8.3900000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8">
-        <v>4.1068204847495703E-2</v>
+        <v>0.82274644839770195</v>
       </c>
       <c r="K72" s="10">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="L72" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2817,7 +2826,7 @@
       </c>
       <c r="N72" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O72">
         <v>3</v>
@@ -2825,42 +2834,68 @@
     </row>
     <row r="73" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G73" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H73" s="8">
-        <v>0.79500000000000004</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8">
-        <v>1</v>
+        <v>4.1068204847495703E-2</v>
       </c>
       <c r="K73" s="10">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="L73" s="1" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="N73" s="1" t="str">
-        <f>IF(J73&lt;0.05, "T", "F")</f>
-        <v>F</v>
+        <f t="shared" si="3"/>
+        <v>T</v>
       </c>
       <c r="O73">
         <v>3</v>
       </c>
     </row>
+    <row r="74" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8">
+        <v>1</v>
+      </c>
+      <c r="K74" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="N74" s="1" t="str">
+        <f>IF(J74&lt;0.05, "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:M73"/>
+  <autoFilter ref="G1:M74"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2872,7 +2907,7 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2898,7 +2933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>97</v>
       </c>
@@ -2927,8 +2962,12 @@
         <f>1-0.049675</f>
         <v>0.95032499999999998</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="28">
+        <f>AVERAGE(F3,G3)</f>
+        <v>0.90210499999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
@@ -2940,7 +2979,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>106</v>
       </c>
@@ -2952,7 +2991,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
@@ -2964,7 +3003,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
-    <row r="7" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
@@ -2976,7 +3015,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
     </row>
-    <row r="8" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>98</v>
       </c>
@@ -2988,7 +3027,7 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>99</v>
       </c>
@@ -3000,12 +3039,12 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>79</v>
       </c>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
@@ -2894,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2938,33 +2938,31 @@
         <v>97</v>
       </c>
       <c r="C3" s="26">
-        <v>0.85765000000000002</v>
+        <v>0.85596000000000005</v>
       </c>
       <c r="D3" s="26">
-        <f>1-0.047325</f>
-        <v>0.95267500000000005</v>
+        <f>1-0.04805</f>
+        <v>0.95194999999999996</v>
       </c>
       <c r="E3" s="27">
         <f>(C3+D3)/2</f>
-        <v>0.90516250000000009</v>
+        <v>0.90395500000000006</v>
       </c>
       <c r="F3" s="26">
-        <v>0.85309000000000001</v>
+        <v>0.85528999999999999</v>
       </c>
       <c r="G3" s="26">
-        <f>1-0.04888</f>
-        <v>0.95111999999999997</v>
+        <v>0.95172000000000001</v>
       </c>
       <c r="H3" s="26">
-        <v>0.85270000000000001</v>
+        <v>0.85680000000000001</v>
       </c>
       <c r="I3" s="26">
-        <f>1-0.049675</f>
-        <v>0.95032499999999998</v>
+        <v>0.95037499999999997</v>
       </c>
       <c r="J3" s="28">
         <f>AVERAGE(F3,G3)</f>
-        <v>0.90210499999999993</v>
+        <v>0.903505</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t>cor.test</t>
   </si>
@@ -327,12 +327,6 @@
     <t>white.test 0.05</t>
   </si>
   <si>
-    <t>deep learning 7 epoch</t>
-  </si>
-  <si>
-    <t>deep learning 8 epoch</t>
-  </si>
-  <si>
     <t>linear train</t>
   </si>
   <si>
@@ -351,16 +345,34 @@
     <t>linear validation</t>
   </si>
   <si>
-    <t xml:space="preserve">white.test </t>
-  </si>
-  <si>
     <t>averaged accuracy</t>
   </si>
   <si>
-    <t>deep learning 9 epoch</t>
-  </si>
-  <si>
     <t>cor.test 0.02 20w</t>
+  </si>
+  <si>
+    <t>deep learning 15 epoch</t>
+  </si>
+  <si>
+    <t>deep learning 8* epoch</t>
+  </si>
+  <si>
+    <t>deep learning 11(*) epoch</t>
+  </si>
+  <si>
+    <t>deep learning 4(w) epoch</t>
+  </si>
+  <si>
+    <t>cor.test 0.015</t>
+  </si>
+  <si>
+    <t>white.test 0.045</t>
+  </si>
+  <si>
+    <t>deep learning 6(t) epoch</t>
+  </si>
+  <si>
+    <t>acc on lineup</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +453,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -469,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -495,19 +513,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,9 +537,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -539,15 +545,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,10 +849,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -852,25 +874,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>90</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="17" t="s">
         <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -920,16 +942,16 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>0.90029999999999999</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <v>0.94867999999999997</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="29">
         <f>(C3+D3)/2</f>
         <v>0.92449000000000003</v>
       </c>
@@ -963,13 +985,13 @@
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="28">
         <v>0.88397000000000003</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="28">
         <v>0.97470999999999997</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="29">
         <f>(C4+D4)/2</f>
         <v>0.92934000000000005</v>
       </c>
@@ -982,13 +1004,13 @@
       <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="28">
         <v>0.89849999999999997</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="28">
         <v>0.95043500000000003</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="29">
         <f>(C5+D5)/2</f>
         <v>0.9244675</v>
       </c>
@@ -998,16 +1020,16 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="28">
         <v>0.88039999999999996</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>0.98009999999999997</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>0.93030000000000002</v>
       </c>
       <c r="F6" s="5"/>
@@ -1019,13 +1041,13 @@
       <c r="B7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="29">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="29">
         <v>0.97119999999999995</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="29">
         <f>(C7+D7)/2</f>
         <v>0.92690000000000006</v>
       </c>
@@ -1059,19 +1081,19 @@
       <c r="B8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="29">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="29">
         <v>0.96872499999999995</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="29">
         <v>0.92567500000000003</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="21">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I8" s="8"/>
@@ -1094,23 +1116,23 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="29">
         <v>0.89097499999999996</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="29">
         <v>0.95684999999999998</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="29">
         <f>(C9+D9)/2</f>
         <v>0.92391249999999991</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I9" s="8"/>
@@ -1133,23 +1155,23 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="30">
         <v>0.87897499999999995</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="30">
         <v>0.97565000000000002</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="30">
         <f>(C10+D10)/2</f>
         <v>0.92731249999999998</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="21">
         <v>0.46960000000000002</v>
       </c>
       <c r="I10" s="8"/>
@@ -1175,7 +1197,7 @@
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="21">
         <v>0.94030000000000002</v>
       </c>
       <c r="I11" s="8"/>
@@ -1201,7 +1223,7 @@
       <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="21">
         <v>0.12970000000000001</v>
       </c>
       <c r="I12" s="8"/>
@@ -1227,7 +1249,7 @@
       <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="21">
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="I13" s="8"/>
@@ -1250,22 +1272,22 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="21">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I14" s="8"/>
@@ -1288,7 +1310,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="1">
@@ -1304,7 +1326,7 @@
       <c r="G15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="21">
         <v>0</v>
       </c>
       <c r="I15" s="8"/>
@@ -1327,7 +1349,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="1">
@@ -1343,7 +1365,7 @@
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="21">
         <v>1E-4</v>
       </c>
       <c r="I16" s="8"/>
@@ -1366,7 +1388,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="1">
@@ -1382,7 +1404,7 @@
       <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="21">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="I17" s="8"/>
@@ -1408,7 +1430,7 @@
       <c r="G18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="21">
         <v>0.75649999999999995</v>
       </c>
       <c r="I18" s="8"/>
@@ -1430,11 +1452,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="38" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="21">
         <v>0.54530000000000001</v>
       </c>
       <c r="I19" s="8"/>
@@ -1457,10 +1491,23 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.94892500000000002</v>
+      </c>
+      <c r="E20" s="23">
+        <f>(C20+D20)/2</f>
+        <v>0.93476249999999994</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="21">
         <v>0.46899999999999997</v>
       </c>
       <c r="I20" s="8"/>
@@ -1483,14 +1530,22 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <f>1-D10</f>
-        <v>2.4349999999999983E-2</v>
+      <c r="B21" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.98504999999999998</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0.94192500000000001</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="21">
         <v>0</v>
       </c>
       <c r="I21" s="8"/>
@@ -1513,10 +1568,14 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
       <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="21">
         <v>0</v>
       </c>
       <c r="I22" s="8"/>
@@ -1539,10 +1598,23 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="22">
+        <f>2*E23-D23</f>
+        <v>0.90424000000000004</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0.97121000000000002</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.93772500000000003</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="21">
         <v>0</v>
       </c>
       <c r="I23" s="8"/>
@@ -1565,10 +1637,23 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.89583000000000002</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.98119000000000001</v>
+      </c>
+      <c r="E24" s="26">
+        <f>(C24+D24)/2</f>
+        <v>0.93850999999999996</v>
+      </c>
       <c r="G24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="21">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="I24" s="8"/>
@@ -1591,10 +1676,23 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.88853000000000004</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.98582000000000003</v>
+      </c>
+      <c r="E25" s="23">
+        <f>(C25+D25)/2</f>
+        <v>0.93717500000000009</v>
+      </c>
       <c r="G25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="21">
         <v>5.1400000000000001E-2</v>
       </c>
       <c r="I25" s="8"/>
@@ -1617,10 +1715,16 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="G26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="21">
         <v>8.0199999999999994E-2</v>
       </c>
       <c r="I26" s="8"/>
@@ -1643,10 +1747,14 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="G27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="21">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I27" s="8"/>
@@ -1672,7 +1780,7 @@
       <c r="G28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="21">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I28" s="8"/>
@@ -1695,10 +1803,11 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="32"/>
       <c r="G29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="21">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="I29" s="8"/>
@@ -1724,7 +1833,7 @@
       <c r="G30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="21">
         <v>2.8E-3</v>
       </c>
       <c r="I30" s="8"/>
@@ -1750,7 +1859,7 @@
       <c r="G31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="21">
         <v>0</v>
       </c>
       <c r="I31" s="8"/>
@@ -1776,7 +1885,7 @@
       <c r="G32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="21">
         <v>0.68789999999999996</v>
       </c>
       <c r="I32" s="8"/>
@@ -1802,7 +1911,7 @@
       <c r="G33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="21">
         <v>0.50749999999999995</v>
       </c>
       <c r="I33" s="8"/>
@@ -1828,7 +1937,7 @@
       <c r="G34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="21">
         <v>0.8014</v>
       </c>
       <c r="I34" s="8"/>
@@ -1854,7 +1963,7 @@
       <c r="G35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="21">
         <v>0</v>
       </c>
       <c r="I35" s="8"/>
@@ -1880,7 +1989,7 @@
       <c r="G36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="21">
         <v>0</v>
       </c>
       <c r="I36" s="8"/>
@@ -1906,7 +2015,7 @@
       <c r="G37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="21">
         <v>0</v>
       </c>
       <c r="I37" s="8"/>
@@ -1932,7 +2041,7 @@
       <c r="G38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="21">
         <v>0</v>
       </c>
       <c r="I38" s="8"/>
@@ -1958,7 +2067,7 @@
       <c r="G39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I39" s="8"/>
@@ -1984,7 +2093,7 @@
       <c r="G40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="21">
         <v>0.1235</v>
       </c>
       <c r="I40" s="8"/>
@@ -2010,7 +2119,7 @@
       <c r="G41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="21">
         <v>0.90300000000000002</v>
       </c>
       <c r="I41" s="8"/>
@@ -2036,7 +2145,7 @@
       <c r="G42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="21">
         <v>0.2873</v>
       </c>
       <c r="I42" s="8"/>
@@ -2060,7 +2169,7 @@
       <c r="G43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="21">
         <v>0.22550000000000001</v>
       </c>
       <c r="I43" s="8"/>
@@ -2084,7 +2193,7 @@
       <c r="G44" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="21">
         <v>0.40150000000000002</v>
       </c>
       <c r="I44" s="8"/>
@@ -2108,7 +2217,7 @@
       <c r="G45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="21">
         <v>0.19120000000000001</v>
       </c>
       <c r="I45" s="8"/>
@@ -2134,7 +2243,7 @@
       <c r="G46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="21">
         <v>0.80930000000000002</v>
       </c>
       <c r="I46" s="8"/>
@@ -2160,7 +2269,7 @@
       <c r="G47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="21">
         <v>0.57069999999999999</v>
       </c>
       <c r="I47" s="8"/>
@@ -2186,7 +2295,7 @@
       <c r="G48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="21">
         <v>0</v>
       </c>
       <c r="I48" s="8"/>
@@ -2212,7 +2321,7 @@
       <c r="G49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="21">
         <v>0.47489999999999999</v>
       </c>
       <c r="I49" s="8"/>
@@ -2238,7 +2347,7 @@
       <c r="G50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="21">
         <v>0</v>
       </c>
       <c r="I50" s="8"/>
@@ -2264,7 +2373,7 @@
       <c r="G51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H51" s="21">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I51" s="8"/>
@@ -2290,7 +2399,7 @@
       <c r="G52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="21">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="I52" s="8"/>
@@ -2316,7 +2425,7 @@
       <c r="G53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="21">
         <v>0</v>
       </c>
       <c r="I53" s="8"/>
@@ -2342,7 +2451,7 @@
       <c r="G54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="21">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="I54" s="8"/>
@@ -2368,7 +2477,7 @@
       <c r="G55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="21">
         <v>1E-4</v>
       </c>
       <c r="I55" s="8"/>
@@ -2394,7 +2503,7 @@
       <c r="G56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="21">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I56" s="8"/>
@@ -2420,7 +2529,7 @@
       <c r="G57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H57" s="21">
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="I57" s="8"/>
@@ -2892,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2904,148 +3013,163 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0.85596000000000005</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <f>1-0.04805</f>
         <v>0.95194999999999996</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f>(C3+D3)/2</f>
         <v>0.90395500000000006</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
+        <f>19/29</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="G3" s="22">
         <v>0.85528999999999999</v>
       </c>
-      <c r="G3" s="26">
+      <c r="H3" s="22">
         <v>0.95172000000000001</v>
       </c>
-      <c r="H3" s="26">
+      <c r="I3" s="22">
         <v>0.85680000000000001</v>
       </c>
-      <c r="I3" s="26">
+      <c r="J3" s="22">
         <v>0.95037499999999997</v>
       </c>
-      <c r="J3" s="28">
-        <f>AVERAGE(F3,G3)</f>
+      <c r="K3" s="22">
+        <f>AVERAGE(G3,H3)</f>
         <v>0.903505</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.85194000000000003</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.95682999999999996</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.90438499999999999</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.96321000000000001</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.98418000000000005</v>
+      </c>
+      <c r="E5" s="25">
+        <f>(C5+D5)/2</f>
+        <v>0.97369499999999998</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.75862070000000004</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.96962000000000004</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.96699000000000002</v>
+      </c>
+      <c r="E6" s="22">
+        <f>(C6+D6)/2</f>
+        <v>0.96830499999999997</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.75862070000000004</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="C7" s="22">
+        <f>2*E7-D7</f>
+        <v>0.95935999999999999</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.97172999999999998</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.7241379</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="10" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>cor.test</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>acc on lineup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human </t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -483,11 +486,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -570,6 +584,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +866,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21:E21"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3003,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3168,6 +3185,15 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
+    <row r="8" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="33">
+        <f>14/23</f>
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
     <row r="10" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="24"/>
     </row>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
   <si>
     <t>cor.test</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve">human </t>
+  </si>
+  <si>
+    <t>acc lineup no null</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -484,17 +487,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -528,9 +520,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +573,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,10 +858,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -891,25 +883,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>90</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -920,16 +912,16 @@
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="29" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="6"/>
@@ -959,16 +951,16 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>0.90029999999999999</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>0.94867999999999997</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <f>(C3+D3)/2</f>
         <v>0.92449000000000003</v>
       </c>
@@ -999,16 +991,16 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>0.88397000000000003</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>0.97470999999999997</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <f>(C4+D4)/2</f>
         <v>0.92934000000000005</v>
       </c>
@@ -1018,16 +1010,16 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>0.89849999999999997</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>0.95043500000000003</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <f>(C5+D5)/2</f>
         <v>0.9244675</v>
       </c>
@@ -1037,16 +1029,16 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>0.88039999999999996</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>0.98009999999999997</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>0.93030000000000002</v>
       </c>
       <c r="F6" s="5"/>
@@ -1055,16 +1047,16 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>0.97119999999999995</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f>(C7+D7)/2</f>
         <v>0.92690000000000006</v>
       </c>
@@ -1095,22 +1087,22 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>0.96872499999999995</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>0.92567500000000003</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I8" s="8"/>
@@ -1133,23 +1125,23 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>0.89097499999999996</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>0.95684999999999998</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f>(C9+D9)/2</f>
         <v>0.92391249999999991</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I9" s="8"/>
@@ -1172,23 +1164,23 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>0.87897499999999995</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>0.97565000000000002</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f>(C10+D10)/2</f>
         <v>0.92731249999999998</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>0.46960000000000002</v>
       </c>
       <c r="I10" s="8"/>
@@ -1214,7 +1206,7 @@
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>0.94030000000000002</v>
       </c>
       <c r="I11" s="8"/>
@@ -1240,7 +1232,7 @@
       <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0.12970000000000001</v>
       </c>
       <c r="I12" s="8"/>
@@ -1266,7 +1258,7 @@
       <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="I13" s="8"/>
@@ -1304,7 +1296,7 @@
       <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I14" s="8"/>
@@ -1343,7 +1335,7 @@
       <c r="G15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>0</v>
       </c>
       <c r="I15" s="8"/>
@@ -1382,7 +1374,7 @@
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>1E-4</v>
       </c>
       <c r="I16" s="8"/>
@@ -1421,7 +1413,7 @@
       <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="I17" s="8"/>
@@ -1447,7 +1439,7 @@
       <c r="G18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>0.75649999999999995</v>
       </c>
       <c r="I18" s="8"/>
@@ -1485,7 +1477,7 @@
       <c r="G19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>0.54530000000000001</v>
       </c>
       <c r="I19" s="8"/>
@@ -1508,23 +1500,23 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>0.92059999999999997</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>0.94892500000000002</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <f>(C20+D20)/2</f>
         <v>0.93476249999999994</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>0.46899999999999997</v>
       </c>
       <c r="I20" s="8"/>
@@ -1547,22 +1539,22 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>0.89880000000000004</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>0.98504999999999998</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>0.94192500000000001</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>0</v>
       </c>
       <c r="I21" s="8"/>
@@ -1585,14 +1577,14 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
       <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>0</v>
       </c>
       <c r="I22" s="8"/>
@@ -1615,23 +1607,23 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <f>2*E23-D23</f>
         <v>0.90424000000000004</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>0.97121000000000002</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>0.93772500000000003</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>0</v>
       </c>
       <c r="I23" s="8"/>
@@ -1654,23 +1646,23 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>0.89583000000000002</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>0.98119000000000001</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="25">
         <f>(C24+D24)/2</f>
         <v>0.93850999999999996</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="I24" s="8"/>
@@ -1693,23 +1685,23 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>0.88853000000000004</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>0.98582000000000003</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <f>(C25+D25)/2</f>
         <v>0.93717500000000009</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>5.1400000000000001E-2</v>
       </c>
       <c r="I25" s="8"/>
@@ -1732,16 +1724,16 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="G26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>8.0199999999999994E-2</v>
       </c>
       <c r="I26" s="8"/>
@@ -1764,14 +1756,14 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="G27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I27" s="8"/>
@@ -1797,7 +1789,7 @@
       <c r="G28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I28" s="8"/>
@@ -1820,11 +1812,11 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="32"/>
+      <c r="D29" s="31"/>
       <c r="G29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="I29" s="8"/>
@@ -1850,7 +1842,7 @@
       <c r="G30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>2.8E-3</v>
       </c>
       <c r="I30" s="8"/>
@@ -1876,7 +1868,7 @@
       <c r="G31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>0</v>
       </c>
       <c r="I31" s="8"/>
@@ -1902,7 +1894,7 @@
       <c r="G32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <v>0.68789999999999996</v>
       </c>
       <c r="I32" s="8"/>
@@ -1928,7 +1920,7 @@
       <c r="G33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <v>0.50749999999999995</v>
       </c>
       <c r="I33" s="8"/>
@@ -1954,7 +1946,7 @@
       <c r="G34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>0.8014</v>
       </c>
       <c r="I34" s="8"/>
@@ -1980,7 +1972,7 @@
       <c r="G35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <v>0</v>
       </c>
       <c r="I35" s="8"/>
@@ -2006,7 +1998,7 @@
       <c r="G36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <v>0</v>
       </c>
       <c r="I36" s="8"/>
@@ -2032,7 +2024,7 @@
       <c r="G37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <v>0</v>
       </c>
       <c r="I37" s="8"/>
@@ -2058,7 +2050,7 @@
       <c r="G38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="20">
         <v>0</v>
       </c>
       <c r="I38" s="8"/>
@@ -2084,7 +2076,7 @@
       <c r="G39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I39" s="8"/>
@@ -2110,7 +2102,7 @@
       <c r="G40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="20">
         <v>0.1235</v>
       </c>
       <c r="I40" s="8"/>
@@ -2136,7 +2128,7 @@
       <c r="G41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="20">
         <v>0.90300000000000002</v>
       </c>
       <c r="I41" s="8"/>
@@ -2162,7 +2154,7 @@
       <c r="G42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="20">
         <v>0.2873</v>
       </c>
       <c r="I42" s="8"/>
@@ -2186,7 +2178,7 @@
       <c r="G43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="20">
         <v>0.22550000000000001</v>
       </c>
       <c r="I43" s="8"/>
@@ -2210,7 +2202,7 @@
       <c r="G44" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="20">
         <v>0.40150000000000002</v>
       </c>
       <c r="I44" s="8"/>
@@ -2234,7 +2226,7 @@
       <c r="G45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="20">
         <v>0.19120000000000001</v>
       </c>
       <c r="I45" s="8"/>
@@ -2260,7 +2252,7 @@
       <c r="G46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="20">
         <v>0.80930000000000002</v>
       </c>
       <c r="I46" s="8"/>
@@ -2286,7 +2278,7 @@
       <c r="G47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <v>0.57069999999999999</v>
       </c>
       <c r="I47" s="8"/>
@@ -2312,7 +2304,7 @@
       <c r="G48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="20">
         <v>0</v>
       </c>
       <c r="I48" s="8"/>
@@ -2338,7 +2330,7 @@
       <c r="G49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="20">
         <v>0.47489999999999999</v>
       </c>
       <c r="I49" s="8"/>
@@ -2364,7 +2356,7 @@
       <c r="G50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="20">
         <v>0</v>
       </c>
       <c r="I50" s="8"/>
@@ -2390,7 +2382,7 @@
       <c r="G51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="20">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I51" s="8"/>
@@ -2416,7 +2408,7 @@
       <c r="G52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="20">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="I52" s="8"/>
@@ -2442,7 +2434,7 @@
       <c r="G53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="20">
         <v>0</v>
       </c>
       <c r="I53" s="8"/>
@@ -2468,7 +2460,7 @@
       <c r="G54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="20">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="I54" s="8"/>
@@ -2494,7 +2486,7 @@
       <c r="G55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="20">
         <v>1E-4</v>
       </c>
       <c r="I55" s="8"/>
@@ -2520,7 +2512,7 @@
       <c r="G56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="20">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I56" s="8"/>
@@ -2546,7 +2538,7 @@
       <c r="G57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="20">
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="I57" s="8"/>
@@ -3018,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3030,11 +3022,11 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3047,155 +3039,183 @@
       <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>0.85596000000000005</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <f>1-0.04805</f>
         <v>0.95194999999999996</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <f>(C3+D3)/2</f>
         <v>0.90395500000000006</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <f>19/29</f>
         <v>0.65517241379310343</v>
       </c>
       <c r="G3" s="22">
+        <f>13/23</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="H3" s="21">
         <v>0.85528999999999999</v>
       </c>
-      <c r="H3" s="22">
+      <c r="I3" s="21">
         <v>0.95172000000000001</v>
       </c>
-      <c r="I3" s="22">
+      <c r="J3" s="21">
         <v>0.85680000000000001</v>
       </c>
-      <c r="J3" s="22">
+      <c r="K3" s="21">
         <v>0.95037499999999997</v>
       </c>
-      <c r="K3" s="22">
-        <f>AVERAGE(G3,H3)</f>
+      <c r="L3" s="21">
+        <f>AVERAGE(H3,I3)</f>
         <v>0.903505</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>0.85194000000000003</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>0.95682999999999996</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>0.90438499999999999</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.96321000000000001</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>0.98418000000000005</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f>(C5+D5)/2</f>
         <v>0.97369499999999998</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>0.75862070000000004</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="G5" s="22">
+        <v>0.93103449999999999</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="33">
         <v>0.96962000000000004</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="33">
         <v>0.96699000000000002</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="33">
         <f>(C6+D6)/2</f>
         <v>0.96830499999999997</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>0.75862070000000004</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="G6" s="21">
+        <v>0.96551719999999996</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f>2*E7-D7</f>
         <v>0.95935999999999999</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>0.98409999999999997</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>0.97172999999999998</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>0.7241379</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="G7" s="22">
+        <v>0.89655169999999995</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="33">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
+        <f>15/23</f>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="G8" s="22">
         <f>14/23</f>
         <v>0.60869565217391308</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="10" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -16,7 +16,7 @@
     <sheet name="heter" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">linear!$G$1:$M$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">linear!$G$1:$M$73</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>cor.test</t>
   </si>
@@ -267,24 +267,6 @@
     <t>difficulty</t>
   </si>
   <si>
-    <t>deep learning 5 epoch</t>
-  </si>
-  <si>
-    <t>deep learning 10 epoch</t>
-  </si>
-  <si>
-    <t>deep learning 6 epoch</t>
-  </si>
-  <si>
-    <t>deep learning 4 epoch</t>
-  </si>
-  <si>
-    <t>linear (test) set (power)</t>
-  </si>
-  <si>
-    <t>norela (test) set (1-alpha)</t>
-  </si>
-  <si>
     <t>accuracy</t>
   </si>
   <si>
@@ -315,15 +297,6 @@
     <t>computer</t>
   </si>
   <si>
-    <t>cor.test 0.05</t>
-  </si>
-  <si>
-    <t>cor.test 0.02435  20w</t>
-  </si>
-  <si>
-    <t>cor.test 0.05 20w</t>
-  </si>
-  <si>
     <t>white.test 0.05</t>
   </si>
   <si>
@@ -348,30 +321,18 @@
     <t>averaged accuracy</t>
   </si>
   <si>
-    <t>cor.test 0.02 20w</t>
-  </si>
-  <si>
     <t>deep learning 15 epoch</t>
   </si>
   <si>
-    <t>deep learning 8* epoch</t>
-  </si>
-  <si>
     <t>deep learning 11(*) epoch</t>
   </si>
   <si>
     <t>deep learning 4(w) epoch</t>
   </si>
   <si>
-    <t>cor.test 0.015</t>
-  </si>
-  <si>
     <t>white.test 0.045</t>
   </si>
   <si>
-    <t>deep learning 6(t) epoch</t>
-  </si>
-  <si>
     <t>acc on lineup</t>
   </si>
   <si>
@@ -379,6 +340,33 @@
   </si>
   <si>
     <t>acc lineup no null</t>
+  </si>
+  <si>
+    <t>dl4</t>
+  </si>
+  <si>
+    <t>dl6</t>
+  </si>
+  <si>
+    <t>dl8</t>
+  </si>
+  <si>
+    <t>dl10</t>
+  </si>
+  <si>
+    <t>ct0.015</t>
+  </si>
+  <si>
+    <t>ct0.05</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>1-alpha</t>
+  </si>
+  <si>
+    <t>models</t>
   </si>
 </sst>
 </file>
@@ -422,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,12 +444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,15 +539,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -576,7 +549,16 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,18 +838,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O74"/>
+  <dimension ref="B1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
@@ -887,19 +869,19 @@
         <v>2</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>73</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>76</v>
@@ -912,17 +894,17 @@
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>84</v>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
@@ -951,18 +933,18 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="27">
-        <v>0.90029999999999999</v>
-      </c>
-      <c r="D3" s="27">
-        <v>0.94867999999999997</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="B3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.94892500000000002</v>
+      </c>
+      <c r="E3" s="32">
         <f>(C3+D3)/2</f>
-        <v>0.92449000000000003</v>
+        <v>0.93476249999999994</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
@@ -979,11 +961,11 @@
         <v>1.25</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f t="shared" ref="L3:L69" si="0">IF(H3&lt;0.05, "T","F")</f>
+        <f t="shared" ref="L3:L68" si="0">IF(H3&lt;0.05, "T","F")</f>
         <v>F</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N69" si="1">IF(J3&lt;0.05, "T", "F")</f>
+        <f t="shared" ref="N3:N68" si="1">IF(J3&lt;0.05, "T", "F")</f>
         <v>F</v>
       </c>
       <c r="O3">
@@ -991,18 +973,17 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.88397000000000003</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.97470999999999997</v>
-      </c>
-      <c r="E4" s="28">
-        <f>(C4+D4)/2</f>
-        <v>0.92934000000000005</v>
+      <c r="B4" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.98504999999999998</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.94192500000000001</v>
       </c>
       <c r="F4" s="5"/>
       <c r="I4" s="8"/>
@@ -1010,18 +991,18 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0.89849999999999997</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.95043500000000003</v>
-      </c>
-      <c r="E5" s="28">
-        <f>(C5+D5)/2</f>
-        <v>0.9244675</v>
+      <c r="B5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="31">
+        <f>2*E5-D5</f>
+        <v>0.90424000000000004</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.97121000000000002</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.93772500000000003</v>
       </c>
       <c r="F5" s="5"/>
       <c r="I5" s="8"/>
@@ -1029,54 +1010,75 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="27">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0.98009999999999997</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0.93030000000000002</v>
+      <c r="C6" s="34">
+        <v>0.89583000000000002</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0.98119000000000001</v>
+      </c>
+      <c r="E6" s="34">
+        <f>(C6+D6)/2</f>
+        <v>0.93850999999999996</v>
       </c>
       <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8.8700000000000001E-2</v>
+      </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>-1.25</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0.88260000000000005</v>
-      </c>
-      <c r="D7" s="28">
-        <v>0.97119999999999995</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="B7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.88853000000000004</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.98582000000000003</v>
+      </c>
+      <c r="E7" s="32">
         <f>(C7+D7)/2</f>
-        <v>0.92690000000000006</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>0.93717500000000009</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <v>8.8700000000000001E-2</v>
+        <v>6</v>
+      </c>
+      <c r="H7" s="20">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="10">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1087,30 +1089,31 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0.88260000000000005</v>
-      </c>
-      <c r="D8" s="28">
-        <v>0.96872499999999995</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.92567500000000003</v>
+      <c r="B8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.89161000000000001</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.98416000000000003</v>
+      </c>
+      <c r="E8" s="32">
+        <f>(C8+D8)/2</f>
+        <v>0.93788500000000008</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="20">
-        <v>6.9999999999999999E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8">
         <v>0</v>
       </c>
       <c r="K8" s="10">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1125,63 +1128,41 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0.89097499999999996</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0.95684999999999998</v>
-      </c>
-      <c r="E9" s="28">
-        <f>(C9+D9)/2</f>
-        <v>0.92391249999999991</v>
-      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="G9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="20">
-        <v>3.0000000000000001E-3</v>
+        <v>0.46960000000000002</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="10">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0.87897499999999995</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0.97565000000000002</v>
-      </c>
-      <c r="E10" s="29">
-        <f>(C10+D10)/2</f>
-        <v>0.92731249999999998</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="20">
-        <v>0.46960000000000002</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8">
@@ -1204,17 +1185,17 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="20">
-        <v>0.94030000000000002</v>
+        <v>0.12970000000000001</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8">
-        <v>1</v>
+        <v>0.81572080405219205</v>
       </c>
       <c r="K11" s="10">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1230,43 +1211,55 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="20">
-        <v>0.12970000000000001</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8">
-        <v>0.81572080405219205</v>
+        <v>3.6182484510458601E-3</v>
       </c>
       <c r="K12" s="10">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="20">
-        <v>4.5199999999999997E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8">
-        <v>3.6182484510458601E-3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="10">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1277,34 +1270,35 @@
         <v>T</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="C14" s="1">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C14/D14</f>
+        <v>0.67142857142857137</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="20">
-        <v>5.9999999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8">
         <v>0</v>
       </c>
       <c r="K14" s="10">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1320,30 +1314,30 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>70</v>
       </c>
       <c r="E15" s="1">
         <f>C15/D15</f>
-        <v>0.67142857142857137</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="20">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8">
         <v>0</v>
       </c>
       <c r="K15" s="10">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1359,30 +1353,30 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>70</v>
       </c>
       <c r="E16" s="1">
         <f>C16/D16</f>
-        <v>0.62857142857142856</v>
+        <v>0.61428571428571432</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="20">
-        <v>1E-4</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8">
         <v>0</v>
       </c>
       <c r="K16" s="10">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1393,54 +1387,41 @@
         <v>T</v>
       </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1">
-        <f>C17/D17</f>
-        <v>0.61428571428571432</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="20">
-        <v>3.5999999999999999E-3</v>
+        <v>0.75649999999999995</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="10">
         <v>-0.25</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="20">
-        <v>0.75649999999999995</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8">
@@ -1461,31 +1442,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="38" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>84</v>
-      </c>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G19" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="20">
-        <v>0.54530000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8">
         <v>1</v>
       </c>
       <c r="K19" s="10">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1499,60 +1468,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0.92059999999999997</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0.94892500000000002</v>
-      </c>
-      <c r="E20" s="22">
-        <f>(C20+D20)/2</f>
-        <v>0.93476249999999994</v>
-      </c>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G20" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="20">
-        <v>0.46899999999999997</v>
+        <v>0</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="10">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.98504999999999998</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.94192500000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G21" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="20">
         <v>0</v>
@@ -1562,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="10">
-        <v>2.75</v>
+        <v>-2.75</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1576,13 +1520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="20">
         <v>0</v>
@@ -1592,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="10">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1606,71 +1546,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="21">
-        <f>2*E23-D23</f>
-        <v>0.90424000000000004</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0.97121000000000002</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.93772500000000003</v>
-      </c>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G23" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="20">
-        <v>0</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8">
-        <v>0</v>
+        <v>0.60495147368688595</v>
       </c>
       <c r="K23" s="10">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0.89583000000000002</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0.98119000000000001</v>
-      </c>
-      <c r="E24" s="25">
-        <f>(C24+D24)/2</f>
-        <v>0.93850999999999996</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G24" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="20">
-        <v>5.3900000000000003E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8">
-        <v>0.60495147368688595</v>
+        <v>5.1801169946540399E-3</v>
       </c>
       <c r="K24" s="10">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1678,41 +1592,28 @@
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="22">
-        <v>0.88853000000000004</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0.98582000000000003</v>
-      </c>
-      <c r="E25" s="22">
-        <f>(C25+D25)/2</f>
-        <v>0.93717500000000009</v>
-      </c>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G25" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" s="20">
-        <v>5.1400000000000001E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8">
-        <v>5.1801169946540399E-3</v>
+        <v>1.9205859125293E-11</v>
       </c>
       <c r="K25" s="10">
         <v>-3.5</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H25&lt;0.05, "T","F")</f>
         <v>F</v>
       </c>
       <c r="N25" s="1" t="str">
@@ -1723,29 +1624,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="20">
-        <v>8.0199999999999994E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8">
-        <v>1.9205859125293E-11</v>
+        <v>0</v>
       </c>
       <c r="K26" s="10">
         <v>-3.5</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f>IF(H26&lt;0.05, "T","F")</f>
-        <v>F</v>
+        <f t="shared" si="0"/>
+        <v>T</v>
       </c>
       <c r="N26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1755,16 +1650,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G27" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="20">
-        <v>1.2999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8">
@@ -1785,19 +1676,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="28"/>
       <c r="G28" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28" s="20">
-        <v>4.0000000000000002E-4</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8">
         <v>0</v>
       </c>
       <c r="K28" s="10">
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1808,23 +1700,22 @@
         <v>T</v>
       </c>
       <c r="O28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G29" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H29" s="20">
-        <v>6.1000000000000004E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8">
         <v>0</v>
       </c>
       <c r="K29" s="10">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1838,12 +1729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G30" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="20">
-        <v>2.8E-3</v>
+        <v>0</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8">
@@ -1864,38 +1755,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G31" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31" s="20">
-        <v>0</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="10">
-        <v>4.5</v>
+        <v>-0.5</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G32" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="20">
-        <v>0.68789999999999996</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8">
@@ -1918,10 +1809,10 @@
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G33" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33" s="20">
-        <v>0.50749999999999995</v>
+        <v>0.8014</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8">
@@ -1944,33 +1835,33 @@
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" s="20">
-        <v>0.8014</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="10">
-        <v>-0.5</v>
+        <v>-6</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35" s="20">
         <v>0</v>
@@ -1996,7 +1887,7 @@
     </row>
     <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36" s="20">
         <v>0</v>
@@ -2022,7 +1913,7 @@
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37" s="20">
         <v>0</v>
@@ -2048,17 +1939,17 @@
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38" s="20">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8">
         <v>0</v>
       </c>
       <c r="K38" s="10">
-        <v>-6</v>
+        <v>0.75</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2069,30 +1960,30 @@
         <v>T</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" s="20">
-        <v>8.9999999999999998E-4</v>
+        <v>0.1235</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="10">
         <v>0.75</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O39">
         <v>3</v>
@@ -2100,17 +1991,17 @@
     </row>
     <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40" s="20">
-        <v>0.1235</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8">
         <v>1</v>
       </c>
       <c r="K40" s="10">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2126,40 +2017,38 @@
     </row>
     <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H41" s="20">
-        <v>0.90300000000000002</v>
+        <v>0.2873</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8">
-        <v>1</v>
-      </c>
-      <c r="K41" s="10">
-        <v>-0.75</v>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
+        <v>0.87148784343489705</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G42" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42" s="20">
-        <v>0.2873</v>
+        <v>0.22550000000000001</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8">
-        <v>0.87148784343489705</v>
+        <v>1</v>
       </c>
       <c r="K42" s="12">
         <v>0</v>
@@ -2176,10 +2065,10 @@
     </row>
     <row r="43" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G43" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43" s="20">
-        <v>0.22550000000000001</v>
+        <v>0.40150000000000002</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8">
@@ -2200,23 +2089,25 @@
     </row>
     <row r="44" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G44" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" s="20">
-        <v>0.40150000000000002</v>
+        <v>0.19120000000000001</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8">
         <v>1</v>
       </c>
-      <c r="K44" s="12">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>75</v>
+      <c r="K44" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
       </c>
       <c r="O44">
         <v>4</v>
@@ -2224,17 +2115,17 @@
     </row>
     <row r="45" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G45" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" s="20">
-        <v>0.19120000000000001</v>
+        <v>0.80930000000000002</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8">
         <v>1</v>
       </c>
       <c r="K45" s="10">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2250,10 +2141,10 @@
     </row>
     <row r="46" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G46" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H46" s="20">
-        <v>0.80930000000000002</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8">
@@ -2276,51 +2167,51 @@
     </row>
     <row r="47" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G47" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" s="20">
-        <v>0.57069999999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="10">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G48" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" s="20">
-        <v>0</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2328,25 +2219,25 @@
     </row>
     <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" s="20">
-        <v>0.47489999999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2354,17 +2245,17 @@
     </row>
     <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" s="20">
-        <v>0</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8">
         <v>0</v>
       </c>
       <c r="K50" s="10">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2375,22 +2266,22 @@
         <v>T</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" s="20">
-        <v>1.2999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8">
         <v>0</v>
       </c>
       <c r="K51" s="10">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2406,10 +2297,10 @@
     </row>
     <row r="52" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G52" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" s="20">
-        <v>6.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8">
@@ -2432,50 +2323,50 @@
     </row>
     <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G53" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H53" s="20">
-        <v>0</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8">
         <v>0</v>
       </c>
       <c r="K53" s="10">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="L53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="N53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(J53&lt;0.05, "T", "F")</f>
         <v>T</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G54" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H54" s="20">
-        <v>3.5000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8">
         <v>0</v>
       </c>
       <c r="K54" s="10">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="L54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="N54" s="1" t="str">
-        <f>IF(J54&lt;0.05, "T", "F")</f>
+        <f t="shared" si="1"/>
         <v>T</v>
       </c>
       <c r="O54">
@@ -2484,10 +2375,10 @@
     </row>
     <row r="55" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G55" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H55" s="20">
-        <v>1E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8">
@@ -2510,17 +2401,17 @@
     </row>
     <row r="56" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G56" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H56" s="20">
-        <v>5.9999999999999995E-4</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8">
-        <v>0</v>
+        <v>0.19690285527460399</v>
       </c>
       <c r="K56" s="10">
-        <v>1.75</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2528,22 +2419,22 @@
       </c>
       <c r="N56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="20">
-        <v>3.1699999999999999E-2</v>
+        <v>56</v>
+      </c>
+      <c r="H57" s="8">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8">
-        <v>0.19690285527460399</v>
+        <v>0</v>
       </c>
       <c r="K57" s="10">
         <v>2.2999999999999998</v>
@@ -2554,7 +2445,7 @@
       </c>
       <c r="N57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -2562,17 +2453,17 @@
     </row>
     <row r="58" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G58" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58" s="8">
-        <v>1.6999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8">
         <v>0</v>
       </c>
       <c r="K58" s="10">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="L58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2588,10 +2479,10 @@
     </row>
     <row r="59" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G59" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H59" s="8">
-        <v>1.4E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8">
@@ -2614,17 +2505,17 @@
     </row>
     <row r="60" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G60" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H60" s="8">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8">
         <v>0</v>
       </c>
       <c r="K60" s="10">
-        <v>-2.2999999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2640,7 +2531,7 @@
     </row>
     <row r="61" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G61" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H61" s="8">
         <v>0</v>
@@ -2650,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>2.2999999999999998</v>
+        <v>-3.5</v>
       </c>
       <c r="L61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2661,12 +2552,12 @@
         <v>T</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G62" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H62" s="8">
         <v>0</v>
@@ -2676,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="10">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="L62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2692,7 +2583,7 @@
     </row>
     <row r="63" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G63" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H63" s="8">
         <v>0</v>
@@ -2702,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="10">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2718,40 +2609,40 @@
     </row>
     <row r="64" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G64" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H64" s="8">
-        <v>0</v>
+        <v>0.2964</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="10">
-        <v>-3.5</v>
+        <v>0.4</v>
       </c>
       <c r="L64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G65" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H65" s="8">
-        <v>0.2964</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8">
-        <v>1</v>
+        <v>1.99834865548976E-4</v>
       </c>
       <c r="K65" s="10">
         <v>0.4</v>
@@ -2762,7 +2653,7 @@
       </c>
       <c r="N65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O65">
         <v>3</v>
@@ -2770,14 +2661,14 @@
     </row>
     <row r="66" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G66" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H66" s="8">
-        <v>8.9499999999999996E-2</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8">
-        <v>1.99834865548976E-4</v>
+        <v>1</v>
       </c>
       <c r="K66" s="10">
         <v>0.4</v>
@@ -2788,7 +2679,7 @@
       </c>
       <c r="N66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O66">
         <v>3</v>
@@ -2796,43 +2687,43 @@
     </row>
     <row r="67" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G67" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H67" s="8">
-        <v>0.35199999999999998</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="10">
-        <v>0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="L67" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G68" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H68" s="8">
-        <v>2.3400000000000001E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8">
         <v>0</v>
       </c>
       <c r="K68" s="10">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="L68" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2848,24 +2739,24 @@
     </row>
     <row r="69" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G69" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H69" s="8">
-        <v>1E-4</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8">
         <v>0</v>
       </c>
       <c r="K69" s="10">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L69:L73" si="2">IF(H69&lt;0.05, "T","F")</f>
         <v>T</v>
       </c>
       <c r="N69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N69:N72" si="3">IF(J69&lt;0.05, "T", "F")</f>
         <v>T</v>
       </c>
       <c r="O69">
@@ -2874,51 +2765,51 @@
     </row>
     <row r="70" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G70" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H70" s="8">
-        <v>3.4200000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8">
         <v>0</v>
       </c>
       <c r="K70" s="10">
-        <v>-0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" ref="L70:L74" si="2">IF(H70&lt;0.05, "T","F")</f>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="N70" s="1" t="str">
-        <f t="shared" ref="N70:N73" si="3">IF(J70&lt;0.05, "T", "F")</f>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G71" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H71" s="8">
-        <v>1.1999999999999999E-3</v>
+        <v>0.108</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8">
-        <v>0</v>
+        <v>0.82274644839770195</v>
       </c>
       <c r="K71" s="10">
         <v>0.8</v>
       </c>
       <c r="L71" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N71" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O71">
         <v>3</v>
@@ -2926,17 +2817,17 @@
     </row>
     <row r="72" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G72" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H72" s="8">
-        <v>0.108</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8">
-        <v>0.82274644839770195</v>
+        <v>4.1068204847495703E-2</v>
       </c>
       <c r="K72" s="10">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="L72" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2944,7 +2835,7 @@
       </c>
       <c r="N72" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O72">
         <v>3</v>
@@ -2952,58 +2843,32 @@
     </row>
     <row r="73" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G73" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H73" s="8">
-        <v>8.3900000000000002E-2</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8">
-        <v>4.1068204847495703E-2</v>
+        <v>1</v>
       </c>
       <c r="K73" s="10">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="L73" s="1" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="N73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
+        <f>IF(J73&lt;0.05, "T", "F")</f>
+        <v>F</v>
       </c>
       <c r="O73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G74" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H74" s="8">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8">
-        <v>1</v>
-      </c>
-      <c r="K74" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="N74" s="1" t="str">
-        <f>IF(J74&lt;0.05, "T", "F")</f>
-        <v>F</v>
-      </c>
-      <c r="O74">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:M74"/>
+  <autoFilter ref="G1:M73"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3013,7 +2878,7 @@
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3022,7 +2887,7 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="32" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="29" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3031,36 +2896,36 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>113</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C3" s="24">
         <v>0.85596000000000005</v>
@@ -3100,7 +2965,7 @@
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C4" s="21">
         <v>0.85194000000000003</v>
@@ -3117,11 +2982,11 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="30"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C5" s="24">
         <v>0.96321000000000001</v>
@@ -3146,15 +3011,15 @@
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="33">
+        <v>98</v>
+      </c>
+      <c r="C6" s="30">
         <v>0.96962000000000004</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <v>0.96699000000000002</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="30">
         <f>(C6+D6)/2</f>
         <v>0.96830499999999997</v>
       </c>
@@ -3171,7 +3036,7 @@
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C7" s="21">
         <f>2*E7-D7</f>
@@ -3196,7 +3061,7 @@
     </row>
     <row r="8" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
-    <sheet name="heter" sheetId="2" r:id="rId2"/>
+    <sheet name="linear2" sheetId="3" r:id="rId2"/>
+    <sheet name="heter" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">linear!$G$1:$M$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">linear2!$A$1:$G$73</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>cor.test</t>
   </si>
@@ -354,12 +355,6 @@
     <t>dl10</t>
   </si>
   <si>
-    <t>ct0.015</t>
-  </si>
-  <si>
-    <t>ct0.05</t>
-  </si>
-  <si>
     <t>power</t>
   </si>
   <si>
@@ -367,6 +362,15 @@
   </si>
   <si>
     <t>models</t>
+  </si>
+  <si>
+    <t>ct 0.05</t>
+  </si>
+  <si>
+    <t>ct 0.015</t>
+  </si>
+  <si>
+    <t>ct 0.03</t>
   </si>
 </sst>
 </file>
@@ -410,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +451,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -475,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -555,10 +565,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,6 +586,1104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>linear!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>linear!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ct 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ct 0.015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ct 0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dl10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dl8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dl6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dl4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>linear!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.9206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.911325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>linear!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1-alpha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>linear!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ct 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ct 0.015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ct 0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dl10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dl8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dl6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dl4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>linear!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.948925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>linear!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>linear!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ct 0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ct 0.015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ct 0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dl10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dl8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dl6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dl4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>linear!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.9347625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.941925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9406375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.937725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.937175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.937885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-124578528"/>
+        <c:axId val="-124576752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-124578528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-124576752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-124576752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-124578528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1212850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,105 +1949,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O73"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16384" width="23.6640625" style="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8">
-        <v>0.958422006414276</v>
-      </c>
-      <c r="K2" s="10">
-        <v>-1.25</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>IF(H2&lt;0.05, "T","F")</f>
-        <v>F</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f>IF(J2&lt;0.05, "T", "F")</f>
-        <v>F</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="31">
+        <v>110</v>
+      </c>
+      <c r="C3" s="33">
         <v>0.92059999999999997</v>
       </c>
       <c r="D3" s="31">
@@ -947,295 +1999,101 @@
         <v>0.93476249999999994</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8">
-        <v>0.95623369096239597</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f t="shared" ref="L3:L68" si="0">IF(H3&lt;0.05, "T","F")</f>
-        <v>F</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N68" si="1">IF(J3&lt;0.05, "T", "F")</f>
-        <v>F</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="33">
+        <v>111</v>
+      </c>
+      <c r="C4" s="31">
         <v>0.89880000000000004</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>0.98504999999999998</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="32">
         <v>0.94192500000000001</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.91132500000000005</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.96994999999999998</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.94063750000000002</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="31">
-        <f>2*E5-D5</f>
+      <c r="C6" s="31">
+        <f>2*E6-D6</f>
         <v>0.90424000000000004</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D6" s="31">
         <v>0.97121000000000002</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E6" s="32">
         <v>0.93772500000000003</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C7" s="32">
         <v>0.89583000000000002</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D7" s="32">
         <v>0.98119000000000001</v>
       </c>
-      <c r="E6" s="34">
-        <f>(C6+D6)/2</f>
+      <c r="E7" s="34">
+        <f>(C7+D7)/2</f>
         <v>0.93850999999999996</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>8.8700000000000001E-2</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>-1.25</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C8" s="32">
         <v>0.88853000000000004</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D8" s="32">
         <v>0.98582000000000003</v>
-      </c>
-      <c r="E7" s="32">
-        <f>(C7+D7)/2</f>
-        <v>0.93717500000000009</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="20">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="32">
-        <v>0.89161000000000001</v>
-      </c>
-      <c r="D8" s="32">
-        <v>0.98416000000000003</v>
       </c>
       <c r="E8" s="32">
         <f>(C8+D8)/2</f>
+        <v>0.93717500000000009</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.89161000000000001</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.98416000000000003</v>
+      </c>
+      <c r="E9" s="32">
+        <f>(C9+D9)/2</f>
         <v>0.93788500000000008</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="20">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>-1.25</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0.46960000000000002</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>-1.5</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>-1.5</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8">
-        <v>0.81572080405219205</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="20">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <v>3.6182484510458601E-3</v>
-      </c>
-      <c r="K12" s="10">
-        <v>-1.5</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:6" ht="38" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>85</v>
       </c>
@@ -1248,32 +2106,8 @@
       <c r="E13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="20">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <v>-1.75</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>79</v>
       </c>
@@ -1287,32 +2121,8 @@
         <f>C14/D14</f>
         <v>0.67142857142857137</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>87</v>
       </c>
@@ -1326,32 +2136,8 @@
         <f>C15/D15</f>
         <v>0.62857142857142856</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1E-4</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="10">
-        <v>-1.75</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
@@ -1365,1515 +2151,1894 @@
         <f>C16/D16</f>
         <v>0.61428571428571432</v>
       </c>
-      <c r="G16" s="6" t="s">
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>0.958422006414276</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-1.25</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(B2&lt;0.05, "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF(D2&lt;0.05, "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>0.95623369096239597</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>IF(B3&lt;0.05, "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>IF(D3&lt;0.05, "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-1.25</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" ref="F6:F40" si="0">IF(B6&lt;0.05, "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H40" si="1">IF(D6&lt;0.05, "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-1.25</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-1.5</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-1.5</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>0.81572080405219205</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>3.6182484510458601E-3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-1.5</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-1.75</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-1.75</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="20">
+      <c r="B16" s="20">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
         <v>-0.25</v>
       </c>
-      <c r="L16" s="1" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O16">
+      <c r="I16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G17" s="6" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="20">
+      <c r="B17" s="20">
         <v>0.75649999999999995</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="10">
+      <c r="E17" s="10">
         <v>-0.25</v>
       </c>
-      <c r="L17" s="1" t="str">
+      <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O17">
+      <c r="I17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="20">
+      <c r="B18" s="20">
         <v>0.54530000000000001</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="10">
+      <c r="E18" s="10">
         <v>-0.25</v>
       </c>
-      <c r="L18" s="1" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N18" s="1" t="str">
+      <c r="H18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O18">
+      <c r="I18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G19" s="6" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="20">
+      <c r="B19" s="20">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="K19" s="10">
+      <c r="E19" s="10">
         <v>0.25</v>
       </c>
-      <c r="L19" s="1" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="H19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O19">
+      <c r="I19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G20" s="6" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10">
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
         <v>2.75</v>
       </c>
-      <c r="L20" s="1" t="str">
+      <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="H20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G21" s="6" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="20">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="B21" s="20">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
         <v>-2.75</v>
       </c>
-      <c r="L21" s="1" t="str">
+      <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="H21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G22" s="6" t="s">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="20">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
+      <c r="B22" s="20">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
         <v>2.75</v>
       </c>
-      <c r="L22" s="1" t="str">
+      <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N22" s="1" t="str">
+      <c r="H22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G23" s="6" t="s">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="20">
+      <c r="B23" s="20">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
         <v>0.60495147368688595</v>
       </c>
-      <c r="K23" s="10">
+      <c r="E23" s="10">
         <v>3.5</v>
       </c>
-      <c r="L23" s="1" t="str">
+      <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N23" s="1" t="str">
+      <c r="H23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O23">
+      <c r="I23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G24" s="6" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="20">
+      <c r="B24" s="20">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
         <v>5.1801169946540399E-3</v>
       </c>
-      <c r="K24" s="10">
+      <c r="E24" s="10">
         <v>-3.5</v>
       </c>
-      <c r="L24" s="1" t="str">
+      <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N24" s="1" t="str">
+      <c r="H24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O24">
+      <c r="I24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G25" s="6" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="20">
+      <c r="B25" s="20">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
         <v>1.9205859125293E-11</v>
       </c>
-      <c r="K25" s="10">
+      <c r="E25" s="10">
         <v>-3.5</v>
       </c>
-      <c r="L25" s="1" t="str">
-        <f>IF(H25&lt;0.05, "T","F")</f>
-        <v>F</v>
-      </c>
-      <c r="N25" s="1" t="str">
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="H25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O25">
+      <c r="I25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="6" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="20">
+      <c r="B26" s="20">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
         <v>-3.5</v>
       </c>
-      <c r="L26" s="1" t="str">
+      <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N26" s="1" t="str">
+      <c r="H26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O26">
+      <c r="I26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="6" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="20">
+      <c r="B27" s="20">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
         <v>-3.5</v>
       </c>
-      <c r="L27" s="1" t="str">
+      <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N27" s="1" t="str">
+      <c r="H27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O27">
+      <c r="I27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="28"/>
-      <c r="G28" s="6" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="20">
+      <c r="B28" s="20">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
         <v>-4.5</v>
       </c>
-      <c r="L28" s="1" t="str">
+      <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N28" s="1" t="str">
+      <c r="H28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O28">
+      <c r="I28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G29" s="6" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="20">
+      <c r="B29" s="20">
         <v>2.8E-3</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
         <v>4.5</v>
       </c>
-      <c r="L29" s="1" t="str">
+      <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N29" s="1" t="str">
+      <c r="H29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O29">
+      <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="6" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="20">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10">
+      <c r="B30" s="20">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
         <v>4.5</v>
       </c>
-      <c r="L30" s="1" t="str">
+      <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N30" s="1" t="str">
+      <c r="H30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O30">
+      <c r="I30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="6" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="20">
+      <c r="B31" s="20">
         <v>0.68789999999999996</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="K31" s="10">
+      <c r="E31" s="10">
         <v>-0.5</v>
       </c>
-      <c r="L31" s="1" t="str">
+      <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N31" s="1" t="str">
+      <c r="H31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O31">
+      <c r="I31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G32" s="6" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="20">
+      <c r="B32" s="20">
         <v>0.50749999999999995</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="K32" s="10">
+      <c r="E32" s="10">
         <v>-0.5</v>
       </c>
-      <c r="L32" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N32" s="1" t="str">
+      <c r="H32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O32">
+      <c r="I32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="6" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="20">
+      <c r="B33" s="20">
         <v>0.8014</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="10">
+      <c r="E33" s="10">
         <v>-0.5</v>
       </c>
-      <c r="L33" s="1" t="str">
+      <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N33" s="1" t="str">
+      <c r="H33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O33">
+      <c r="I33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G34" s="6" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="20">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10">
+      <c r="B34" s="20">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
         <v>-6</v>
       </c>
-      <c r="L34" s="1" t="str">
+      <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N34" s="1" t="str">
+      <c r="H34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G35" s="6" t="s">
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="20">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10">
+      <c r="B35" s="20">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
         <v>-6</v>
       </c>
-      <c r="L35" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N35" s="1" t="str">
+      <c r="H35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G36" s="6" t="s">
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="20">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
+      <c r="B36" s="20">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
         <v>-6</v>
       </c>
-      <c r="L36" s="1" t="str">
+      <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N36" s="1" t="str">
+      <c r="H36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G37" s="6" t="s">
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="20">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="10">
+      <c r="B37" s="20">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
         <v>-6</v>
       </c>
-      <c r="L37" s="1" t="str">
+      <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N37" s="1" t="str">
+      <c r="H37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G38" s="6" t="s">
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="20">
+      <c r="B38" s="20">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8">
-        <v>0</v>
-      </c>
-      <c r="K38" s="10">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
         <v>0.75</v>
       </c>
-      <c r="L38" s="1" t="str">
+      <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="N38" s="1" t="str">
+      <c r="H38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O38">
+      <c r="I38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G39" s="6" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="20">
+      <c r="B39" s="20">
         <v>0.1235</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="K39" s="10">
+      <c r="E39" s="10">
         <v>0.75</v>
       </c>
-      <c r="L39" s="1" t="str">
+      <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="H39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O39">
+      <c r="I39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G40" s="6" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="20">
+      <c r="B40" s="20">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="K40" s="10">
+      <c r="E40" s="10">
         <v>-0.75</v>
       </c>
-      <c r="L40" s="1" t="str">
+      <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="N40" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="O40">
+      <c r="I40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G41" s="6" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="20">
+      <c r="B41" s="20">
         <v>0.2873</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8">
         <v>0.87148784343489705</v>
       </c>
-      <c r="K41" s="12">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1" t="s">
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O41">
+      <c r="I41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G42" s="6" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="20">
+      <c r="B42" s="20">
         <v>0.22550000000000001</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8">
         <v>1</v>
       </c>
-      <c r="K42" s="12">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O42">
+      <c r="I42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G43" s="6" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="20">
+      <c r="B43" s="20">
         <v>0.40150000000000002</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="K43" s="12">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1" t="s">
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O43">
+      <c r="I43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G44" s="6" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="20">
+      <c r="B44" s="20">
         <v>0.19120000000000001</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="K44" s="10">
+      <c r="E44" s="10">
         <v>0.1</v>
       </c>
-      <c r="L44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O44">
+      <c r="F44" s="1" t="str">
+        <f t="shared" ref="F44:F73" si="2">IF(B44&lt;0.05, "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" ref="H44:H73" si="3">IF(D44&lt;0.05, "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="I44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G45" s="6" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="20">
+      <c r="B45" s="20">
         <v>0.80930000000000002</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8">
         <v>1</v>
       </c>
-      <c r="K45" s="10">
+      <c r="E45" s="10">
         <v>-0.1</v>
       </c>
-      <c r="L45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O45">
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="I45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G46" s="6" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="20">
+      <c r="B46" s="20">
         <v>0.57069999999999999</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8">
         <v>1</v>
       </c>
-      <c r="K46" s="10">
+      <c r="E46" s="10">
         <v>-0.1</v>
       </c>
-      <c r="L46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O46">
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="I46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G47" s="6" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="20">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-      <c r="K47" s="10">
+      <c r="B47" s="20">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
         <v>1</v>
       </c>
-      <c r="L47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O47">
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G48" s="6" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="20">
+      <c r="B48" s="20">
         <v>0.47489999999999999</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="K48" s="10">
+      <c r="E48" s="10">
         <v>-1</v>
       </c>
-      <c r="L48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O48">
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G49" s="6" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="20">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
-      <c r="K49" s="10">
+      <c r="B49" s="20">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
         <v>1</v>
       </c>
-      <c r="L49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O49">
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G50" s="6" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="20">
+      <c r="B50" s="20">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="10">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
         <v>-1.5</v>
       </c>
-      <c r="L50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G51" s="6" t="s">
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="20">
+      <c r="B51" s="20">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
-      <c r="K51" s="10">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
         <v>1.5</v>
       </c>
-      <c r="L51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G52" s="6" t="s">
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="20">
-        <v>0</v>
-      </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
-      <c r="K52" s="10">
+      <c r="B52" s="20">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
         <v>1.5</v>
       </c>
-      <c r="L52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G53" s="6" t="s">
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H53" s="20">
+      <c r="B53" s="20">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
-      <c r="K53" s="10">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
         <v>-1.75</v>
       </c>
-      <c r="L53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N53" s="1" t="str">
-        <f>IF(J53&lt;0.05, "T", "F")</f>
-        <v>T</v>
-      </c>
-      <c r="O53">
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G54" s="6" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="20">
+      <c r="B54" s="20">
         <v>1E-4</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8">
-        <v>0</v>
-      </c>
-      <c r="K54" s="10">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
         <v>1.75</v>
       </c>
-      <c r="L54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O54">
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G55" s="6" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="20">
+      <c r="B55" s="20">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
-      <c r="K55" s="10">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
         <v>1.75</v>
       </c>
-      <c r="L55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O55">
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G56" s="6" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="20">
+      <c r="B56" s="20">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8">
         <v>0.19690285527460399</v>
       </c>
-      <c r="K56" s="10">
+      <c r="E56" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O56">
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G57" s="6" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="8">
+      <c r="B57" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8">
-        <v>0</v>
-      </c>
-      <c r="K57" s="10">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O57">
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G58" s="6" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="8">
+      <c r="B58" s="8">
         <v>1.4E-3</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8">
-        <v>0</v>
-      </c>
-      <c r="K58" s="10">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="L58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O58">
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G59" s="6" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="8">
+      <c r="B59" s="8">
         <v>1E-4</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8">
-        <v>0</v>
-      </c>
-      <c r="K59" s="10">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="L59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O59">
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G60" s="6" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="8">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8">
-        <v>0</v>
-      </c>
-      <c r="K60" s="10">
+      <c r="B60" s="8">
+        <v>0</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O60">
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G61" s="6" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="8">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8">
-        <v>0</v>
-      </c>
-      <c r="K61" s="10">
+      <c r="B61" s="8">
+        <v>0</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
         <v>-3.5</v>
       </c>
-      <c r="L61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G62" s="6" t="s">
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="8">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8">
-        <v>0</v>
-      </c>
-      <c r="K62" s="10">
+      <c r="B62" s="8">
+        <v>0</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
         <v>3.5</v>
       </c>
-      <c r="L62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G63" s="6" t="s">
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="8">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8">
-        <v>0</v>
-      </c>
-      <c r="K63" s="10">
+      <c r="B63" s="8">
+        <v>0</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
         <v>-3.5</v>
       </c>
-      <c r="L63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G64" s="6" t="s">
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H64" s="8">
+      <c r="B64" s="8">
         <v>0.2964</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8">
         <v>1</v>
       </c>
-      <c r="K64" s="10">
+      <c r="E64" s="10">
         <v>0.4</v>
       </c>
-      <c r="L64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O64">
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G65" s="6" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H65" s="8">
+      <c r="B65" s="8">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8">
         <v>1.99834865548976E-4</v>
       </c>
-      <c r="K65" s="10">
+      <c r="E65" s="10">
         <v>0.4</v>
       </c>
-      <c r="L65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O65">
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G66" s="6" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H66" s="8">
+      <c r="B66" s="8">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8">
         <v>1</v>
       </c>
-      <c r="K66" s="10">
+      <c r="E66" s="10">
         <v>0.4</v>
       </c>
-      <c r="L66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="N66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="O66">
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="I66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G67" s="6" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H67" s="8">
+      <c r="B67" s="8">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8">
-        <v>0</v>
-      </c>
-      <c r="K67" s="10">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
         <v>-0.7</v>
       </c>
-      <c r="L67" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O67">
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G68" s="6" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H68" s="8">
+      <c r="B68" s="8">
         <v>1E-4</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8">
-        <v>0</v>
-      </c>
-      <c r="K68" s="10">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
         <v>0.7</v>
       </c>
-      <c r="L68" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="N68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="O68">
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G69" s="6" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H69" s="8">
+      <c r="B69" s="8">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8">
-        <v>0</v>
-      </c>
-      <c r="K69" s="10">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
         <v>-0.7</v>
       </c>
-      <c r="L69" s="1" t="str">
-        <f t="shared" ref="L69:L73" si="2">IF(H69&lt;0.05, "T","F")</f>
-        <v>T</v>
-      </c>
-      <c r="N69" s="1" t="str">
-        <f t="shared" ref="N69:N72" si="3">IF(J69&lt;0.05, "T", "F")</f>
-        <v>T</v>
-      </c>
-      <c r="O69">
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="I69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G70" s="6" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="8">
+      <c r="B70" s="8">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8">
-        <v>0</v>
-      </c>
-      <c r="K70" s="10">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
         <v>0.8</v>
       </c>
-      <c r="L70" s="1" t="str">
+      <c r="F70" s="1" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="N70" s="1" t="str">
+      <c r="H70" s="1" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="O70">
+      <c r="I70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G71" s="6" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H71" s="8">
+      <c r="B71" s="8">
         <v>0.108</v>
       </c>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8">
         <v>0.82274644839770195</v>
       </c>
-      <c r="K71" s="10">
+      <c r="E71" s="10">
         <v>0.8</v>
       </c>
-      <c r="L71" s="1" t="str">
+      <c r="F71" s="1" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="N71" s="1" t="str">
+      <c r="H71" s="1" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="O71">
+      <c r="I71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G72" s="6" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H72" s="8">
+      <c r="B72" s="8">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8">
         <v>4.1068204847495703E-2</v>
       </c>
-      <c r="K72" s="10">
+      <c r="E72" s="10">
         <v>-0.8</v>
       </c>
-      <c r="L72" s="1" t="str">
+      <c r="F72" s="1" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="N72" s="1" t="str">
+      <c r="H72" s="1" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="O72">
+      <c r="I72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G73" s="6" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H73" s="8">
+      <c r="B73" s="8">
         <v>0.79500000000000004</v>
       </c>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8">
         <v>1</v>
       </c>
-      <c r="K73" s="10">
+      <c r="E73" s="10">
         <v>0.8</v>
       </c>
-      <c r="L73" s="1" t="str">
+      <c r="F73" s="1" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="N73" s="1" t="str">
-        <f>IF(J73&lt;0.05, "T", "F")</f>
-        <v>F</v>
-      </c>
-      <c r="O73">
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="I73">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:M73"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L10"/>
   <sheetViews>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="6040" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
-  <si>
-    <t>cor.test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>aside</t>
   </si>
@@ -371,6 +368,12 @@
   </si>
   <si>
     <t>ct 0.03</t>
+  </si>
+  <si>
+    <t>cor.test 5%</t>
+  </si>
+  <si>
+    <t>cor.test 2%</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -574,6 +577,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-124578528"/>
-        <c:axId val="-124576752"/>
+        <c:axId val="-123571056"/>
+        <c:axId val="-123569280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-124578528"/>
+        <c:axId val="-123571056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-124576752"/>
+        <c:crossAx val="-123569280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-124576752"/>
+        <c:axId val="-123569280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-124578528"/>
+        <c:crossAx val="-123571056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,7 +1960,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1971,22 +1977,22 @@
     <row r="1" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="33">
         <v>0.92059999999999997</v>
@@ -2001,8 +2007,8 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>111</v>
+      <c r="B4" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="C4" s="31">
         <v>0.89880000000000004</v>
@@ -2017,7 +2023,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="31">
         <v>0.91132500000000005</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="31">
         <f>2*E6-D6</f>
@@ -2048,7 +2054,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="32">
         <v>0.89583000000000002</v>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="32">
         <v>0.88853000000000004</v>
@@ -2080,7 +2086,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="32">
         <v>0.89161000000000001</v>
@@ -2095,21 +2101,21 @@
     </row>
     <row r="13" spans="2:6" ht="38" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1">
         <v>47</v>
@@ -2124,35 +2130,48 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>70</v>
       </c>
       <c r="E15" s="1">
         <f>C15/D15</f>
-        <v>0.62857142857142856</v>
+        <v>0.61428571428571432</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>70</v>
       </c>
       <c r="E16" s="1">
-        <f>C16/D16</f>
-        <v>0.61428571428571432</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+        <v>0.5571429</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5571429</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D28" s="28"/>
     </row>
   </sheetData>
@@ -2182,36 +2201,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8">
         <v>9.2700000000000005E-2</v>
@@ -2237,7 +2256,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8">
         <v>0.10340000000000001</v>
@@ -2273,7 +2292,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
         <v>8.8700000000000001E-2</v>
@@ -2299,7 +2318,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="20">
         <v>6.9999999999999999E-4</v>
@@ -2325,7 +2344,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="20">
         <v>3.0000000000000001E-3</v>
@@ -2351,7 +2370,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="20">
         <v>0.46960000000000002</v>
@@ -2377,7 +2396,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="20">
         <v>0.94030000000000002</v>
@@ -2403,7 +2422,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="20">
         <v>0.12970000000000001</v>
@@ -2429,7 +2448,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="20">
         <v>4.5199999999999997E-2</v>
@@ -2455,7 +2474,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="20">
         <v>5.9999999999999995E-4</v>
@@ -2481,7 +2500,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="20">
         <v>0</v>
@@ -2507,7 +2526,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="20">
         <v>1E-4</v>
@@ -2533,7 +2552,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="20">
         <v>3.5999999999999999E-3</v>
@@ -2559,7 +2578,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="20">
         <v>0.75649999999999995</v>
@@ -2585,7 +2604,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="20">
         <v>0.54530000000000001</v>
@@ -2611,7 +2630,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="20">
         <v>0.46899999999999997</v>
@@ -2637,7 +2656,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="20">
         <v>0</v>
@@ -2663,7 +2682,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="20">
         <v>0</v>
@@ -2689,7 +2708,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="20">
         <v>0</v>
@@ -2715,7 +2734,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="20">
         <v>5.3900000000000003E-2</v>
@@ -2741,7 +2760,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="20">
         <v>5.1400000000000001E-2</v>
@@ -2767,7 +2786,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="20">
         <v>8.0199999999999994E-2</v>
@@ -2793,7 +2812,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="20">
         <v>1.2999999999999999E-3</v>
@@ -2819,7 +2838,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="20">
         <v>4.0000000000000002E-4</v>
@@ -2845,7 +2864,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="20">
         <v>6.1000000000000004E-3</v>
@@ -2871,7 +2890,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="20">
         <v>2.8E-3</v>
@@ -2897,7 +2916,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="20">
         <v>0</v>
@@ -2923,7 +2942,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="20">
         <v>0.68789999999999996</v>
@@ -2949,7 +2968,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="20">
         <v>0.50749999999999995</v>
@@ -2975,7 +2994,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="20">
         <v>0.8014</v>
@@ -3001,7 +3020,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="20">
         <v>0</v>
@@ -3027,7 +3046,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="20">
         <v>0</v>
@@ -3053,7 +3072,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="20">
         <v>0</v>
@@ -3079,7 +3098,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="20">
         <v>0</v>
@@ -3105,7 +3124,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="20">
         <v>8.9999999999999998E-4</v>
@@ -3131,7 +3150,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="20">
         <v>0.1235</v>
@@ -3157,7 +3176,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="20">
         <v>0.90300000000000002</v>
@@ -3183,7 +3202,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="20">
         <v>0.2873</v>
@@ -3196,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -3207,7 +3226,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="20">
         <v>0.22550000000000001</v>
@@ -3220,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I42">
         <v>4</v>
@@ -3231,7 +3250,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="20">
         <v>0.40150000000000002</v>
@@ -3244,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -3255,7 +3274,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="20">
         <v>0.19120000000000001</v>
@@ -3281,7 +3300,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="20">
         <v>0.80930000000000002</v>
@@ -3307,7 +3326,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="20">
         <v>0.57069999999999999</v>
@@ -3333,7 +3352,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="20">
         <v>0</v>
@@ -3359,7 +3378,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="20">
         <v>0.47489999999999999</v>
@@ -3385,7 +3404,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="20">
         <v>0</v>
@@ -3411,7 +3430,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="20">
         <v>1.2999999999999999E-3</v>
@@ -3437,7 +3456,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="20">
         <v>6.7000000000000002E-3</v>
@@ -3463,7 +3482,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="20">
         <v>0</v>
@@ -3489,7 +3508,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="20">
         <v>3.5000000000000001E-3</v>
@@ -3515,7 +3534,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="20">
         <v>1E-4</v>
@@ -3541,7 +3560,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="20">
         <v>5.9999999999999995E-4</v>
@@ -3567,7 +3586,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="20">
         <v>3.1699999999999999E-2</v>
@@ -3593,7 +3612,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8">
         <v>1.6999999999999999E-3</v>
@@ -3619,7 +3638,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8">
         <v>1.4E-3</v>
@@ -3645,7 +3664,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8">
         <v>1E-4</v>
@@ -3671,7 +3690,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8">
         <v>0</v>
@@ -3697,7 +3716,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8">
         <v>0</v>
@@ -3723,7 +3742,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="8">
         <v>0</v>
@@ -3749,7 +3768,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="8">
         <v>0</v>
@@ -3775,7 +3794,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8">
         <v>0.2964</v>
@@ -3801,7 +3820,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8">
         <v>8.9499999999999996E-2</v>
@@ -3827,7 +3846,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8">
         <v>0.35199999999999998</v>
@@ -3853,7 +3872,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8">
         <v>2.3400000000000001E-2</v>
@@ -3879,7 +3898,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8">
         <v>1E-4</v>
@@ -3905,7 +3924,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8">
         <v>3.4200000000000001E-2</v>
@@ -3931,7 +3950,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8">
         <v>1.1999999999999999E-3</v>
@@ -3957,7 +3976,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8">
         <v>0.108</v>
@@ -3983,7 +4002,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="8">
         <v>8.3900000000000002E-2</v>
@@ -4009,7 +4028,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8">
         <v>0.79500000000000004</v>
@@ -4058,39 +4077,39 @@
   <sheetData>
     <row r="2" spans="2:12" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="24">
         <v>0.85596000000000005</v>
@@ -4130,7 +4149,7 @@
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="21">
         <v>0.85194000000000003</v>
@@ -4151,7 +4170,7 @@
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="24">
         <v>0.96321000000000001</v>
@@ -4176,7 +4195,7 @@
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="30">
         <v>0.96962000000000004</v>
@@ -4201,7 +4220,7 @@
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="21">
         <f>2*E7-D7</f>
@@ -4226,7 +4245,7 @@
     </row>
     <row r="8" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="640" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t>aside</t>
   </si>
@@ -268,9 +268,6 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>human</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>human p.value</t>
   </si>
   <si>
-    <t>computer</t>
-  </si>
-  <si>
     <t>white.test 0.05</t>
   </si>
   <si>
@@ -374,6 +368,15 @@
   </si>
   <si>
     <t>cor.test 2%</t>
+  </si>
+  <si>
+    <t>human 5%</t>
+  </si>
+  <si>
+    <t>human 2%</t>
+  </si>
+  <si>
+    <t>computer 2%</t>
   </si>
 </sst>
 </file>
@@ -1955,12 +1958,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F28"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1977,13 +1980,13 @@
     <row r="1" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>77</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="33">
         <v>0.92059999999999997</v>
@@ -2008,7 +2011,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="31">
         <v>0.89880000000000004</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="31">
         <v>0.91132500000000005</v>
@@ -2038,7 +2041,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="31">
         <f>2*E6-D6</f>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="32">
         <v>0.89583000000000002</v>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="32">
         <v>0.88853000000000004</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="32">
         <v>0.89161000000000001</v>
@@ -2101,13 +2104,13 @@
     </row>
     <row r="13" spans="2:6" ht="38" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>77</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1">
         <v>47</v>
@@ -2130,36 +2133,36 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>70</v>
       </c>
       <c r="E15" s="1">
-        <f>C15/D15</f>
-        <v>0.61428571428571432</v>
+        <v>0.67142860000000004</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>70</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5571429</v>
+        <f>C16/D16</f>
+        <v>0.61428571428571432</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1">
         <v>39</v>
@@ -2171,8 +2174,22 @@
         <v>0.5571429</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="28"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5571429</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,19 +2221,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>75</v>
@@ -4080,36 +4097,36 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="24">
         <v>0.85596000000000005</v>
@@ -4149,7 +4166,7 @@
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="21">
         <v>0.85194000000000003</v>
@@ -4170,7 +4187,7 @@
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="24">
         <v>0.96321000000000001</v>
@@ -4195,7 +4212,7 @@
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="30">
         <v>0.96962000000000004</v>
@@ -4220,7 +4237,7 @@
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="21">
         <f>2*E7-D7</f>
@@ -4245,7 +4262,7 @@
     </row>
     <row r="8" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="640" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="2260" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -1672,7 +1672,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1212850</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1958,12 +1958,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2102,94 +2102,124 @@
         <v>0.93788500000000008</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C20" s="1">
         <v>47</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D20" s="1">
         <v>70</v>
       </c>
-      <c r="E14" s="1">
-        <f>C14/D14</f>
+      <c r="E20" s="1">
+        <f>C20/D20</f>
         <v>0.67142857142857137</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C21" s="1">
         <v>47</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D21" s="1">
         <v>70</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E21" s="1">
         <v>0.67142860000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C22" s="1">
         <v>43</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D22" s="1">
         <v>70</v>
       </c>
-      <c r="E16" s="1">
-        <f>C16/D16</f>
+      <c r="E22" s="1">
+        <f>C22/D22</f>
         <v>0.61428571428571432</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C23" s="1">
         <v>39</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D23" s="1">
         <v>70</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E23" s="1">
         <v>0.5571429</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C24" s="1">
         <v>39</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D24" s="1">
         <v>70</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E24" s="1">
         <v>0.5571429</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="28"/>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4079,7 +4109,7 @@
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="460" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="1460" yWindow="660" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
   <si>
     <t>aside</t>
   </si>
@@ -377,6 +377,24 @@
   </si>
   <si>
     <t>computer 2%</t>
+  </si>
+  <si>
+    <t>dl1</t>
+  </si>
+  <si>
+    <t>dl2</t>
+  </si>
+  <si>
+    <t>dl3</t>
+  </si>
+  <si>
+    <t>dl5</t>
+  </si>
+  <si>
+    <t>dl7</t>
+  </si>
+  <si>
+    <t>dl9</t>
   </si>
 </sst>
 </file>
@@ -491,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -577,9 +595,6 @@
     <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -676,9 +691,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>linear!$B$3:$B$9</c:f>
+              <c:f>linear!$B$3:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>ct 0.05</c:v>
                 </c:pt>
@@ -689,26 +704,44 @@
                   <c:v>ct 0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dl10</c:v>
+                  <c:v>dl1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>dl8</c:v>
+                  <c:v>dl2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>dl6</c:v>
+                  <c:v>dl3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>dl4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dl5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dl6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dl7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dl8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dl9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dl10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>linear!$C$3:$C$9</c:f>
+              <c:f>linear!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.9206</c:v>
                 </c:pt>
@@ -719,16 +752,34 @@
                   <c:v>0.911325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90424</c:v>
+                  <c:v>0.88524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89583</c:v>
+                  <c:v>0.9027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88853</c:v>
+                  <c:v>0.89049</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.89161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,9 +814,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>linear!$B$3:$B$9</c:f>
+              <c:f>linear!$B$3:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>ct 0.05</c:v>
                 </c:pt>
@@ -776,26 +827,44 @@
                   <c:v>ct 0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dl10</c:v>
+                  <c:v>dl1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>dl8</c:v>
+                  <c:v>dl2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>dl6</c:v>
+                  <c:v>dl3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>dl4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dl5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dl6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dl7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dl8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dl9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dl10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>linear!$D$3:$D$9</c:f>
+              <c:f>linear!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.948925</c:v>
                 </c:pt>
@@ -806,16 +875,34 @@
                   <c:v>0.96995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97121</c:v>
+                  <c:v>0.98267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98119</c:v>
+                  <c:v>0.9653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98582</c:v>
+                  <c:v>0.98435</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.98416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98582</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98539</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98119</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,9 +937,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>linear!$B$3:$B$9</c:f>
+              <c:f>linear!$B$3:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>ct 0.05</c:v>
                 </c:pt>
@@ -863,26 +950,44 @@
                   <c:v>ct 0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dl10</c:v>
+                  <c:v>dl1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>dl8</c:v>
+                  <c:v>dl2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>dl6</c:v>
+                  <c:v>dl3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>dl4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dl5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dl6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dl7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dl8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dl9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dl10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>linear!$E$3:$E$9</c:f>
+              <c:f>linear!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.9347625</c:v>
                 </c:pt>
@@ -893,16 +998,34 @@
                   <c:v>0.9406375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.937725</c:v>
+                  <c:v>0.933955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93851</c:v>
+                  <c:v>0.934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.937175</c:v>
+                  <c:v>0.93742</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.937885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.937355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.937175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.938475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.937105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.937725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,11 +1041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-123571056"/>
-        <c:axId val="-123569280"/>
+        <c:axId val="-123424640"/>
+        <c:axId val="-123877008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-123571056"/>
+        <c:axId val="-123424640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-123569280"/>
+        <c:crossAx val="-123877008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-123569280"/>
+        <c:axId val="-123877008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,6 +1116,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1023,7 +1147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-123571056"/>
+        <c:crossAx val="-123424640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,7 +1796,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1212850</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1958,12 +2082,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2010,7 +2134,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="31">
@@ -2041,51 +2165,51 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C6" s="31">
-        <f>2*E6-D6</f>
-        <v>0.90424000000000004</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0.97121000000000002</v>
+        <v>0.88524000000000003</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.98267000000000004</v>
       </c>
       <c r="E6" s="32">
-        <v>0.93772500000000003</v>
+        <f>(C6+D6)/2</f>
+        <v>0.93395500000000009</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="32">
-        <v>0.89583000000000002</v>
+        <v>116</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.90269999999999995</v>
       </c>
       <c r="D7" s="32">
-        <v>0.98119000000000001</v>
-      </c>
-      <c r="E7" s="34">
-        <f>(C7+D7)/2</f>
-        <v>0.93850999999999996</v>
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="E7" s="32">
+        <f t="shared" ref="E7:E8" si="0">(C7+D7)/2</f>
+        <v>0.93399999999999994</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="32">
-        <v>0.88853000000000004</v>
+        <v>117</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.89049</v>
       </c>
       <c r="D8" s="32">
-        <v>0.98582000000000003</v>
+        <v>0.98434999999999995</v>
       </c>
       <c r="E8" s="32">
-        <f>(C8+D8)/2</f>
-        <v>0.93717500000000009</v>
-      </c>
-      <c r="F8" s="35"/>
+        <f t="shared" si="0"/>
+        <v>0.93741999999999992</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
@@ -2101,125 +2225,192 @@
         <f>(C9+D9)/2</f>
         <v>0.93788500000000008</v>
       </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
+      <c r="B10" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.89278999999999997</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.98192000000000002</v>
+      </c>
+      <c r="E10" s="32">
+        <f>(C10+D10)/2</f>
+        <v>0.93735499999999994</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
+      <c r="B11" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.88853000000000004</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.98582000000000003</v>
+      </c>
+      <c r="E11" s="32">
+        <f>(C11+D11)/2</f>
+        <v>0.93717500000000009</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
+      <c r="B12" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.89156000000000002</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.98538999999999999</v>
+      </c>
+      <c r="E12" s="32">
+        <f>(C12+D12)/2</f>
+        <v>0.93847499999999995</v>
+      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
+      <c r="B13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.89583000000000002</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.98119000000000001</v>
+      </c>
+      <c r="E13" s="34">
+        <f>(C13+D13)/2</f>
+        <v>0.93850999999999996</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
+      <c r="B14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.89971999999999996</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.97448999999999997</v>
+      </c>
+      <c r="E14" s="32">
+        <f>(C14+D14)/2</f>
+        <v>0.93710499999999997</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="31">
+        <f>2*E15-D15</f>
+        <v>0.90424000000000004</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0.97121000000000002</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.93772500000000003</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="25" spans="2:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C26" s="1">
         <v>47</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D26" s="1">
         <v>70</v>
       </c>
-      <c r="E20" s="1">
-        <f>C20/D20</f>
+      <c r="E26" s="1">
+        <f>C26/D26</f>
         <v>0.67142857142857137</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C27" s="1">
         <v>47</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D27" s="1">
         <v>70</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E27" s="1">
         <v>0.67142860000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C28" s="1">
         <v>43</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D28" s="1">
         <v>70</v>
       </c>
-      <c r="E22" s="1">
-        <f>C22/D22</f>
+      <c r="E28" s="1">
+        <f>C28/D28</f>
         <v>0.61428571428571432</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C29" s="1">
         <v>39</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D29" s="1">
         <v>70</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E29" s="1">
         <v>0.5571429</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C30" s="1">
         <v>39</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D30" s="1">
         <v>70</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E30" s="1">
         <v>0.5571429</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="28"/>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="660" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="640" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -1041,11 +1041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-123424640"/>
-        <c:axId val="-123877008"/>
+        <c:axId val="-137493168"/>
+        <c:axId val="-124531072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-123424640"/>
+        <c:axId val="-137493168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-123877008"/>
+        <c:crossAx val="-124531072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-123877008"/>
+        <c:axId val="-124531072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-123424640"/>
+        <c:crossAx val="-137493168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2087,7 +2087,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2222,7 +2222,7 @@
         <v>0.98416000000000003</v>
       </c>
       <c r="E9" s="32">
-        <f>(C9+D9)/2</f>
+        <f t="shared" ref="E9:E14" si="1">(C9+D9)/2</f>
         <v>0.93788500000000008</v>
       </c>
       <c r="F9" s="5"/>
@@ -2238,7 +2238,7 @@
         <v>0.98192000000000002</v>
       </c>
       <c r="E10" s="32">
-        <f>(C10+D10)/2</f>
+        <f t="shared" si="1"/>
         <v>0.93735499999999994</v>
       </c>
       <c r="F10" s="5"/>
@@ -2254,7 +2254,7 @@
         <v>0.98582000000000003</v>
       </c>
       <c r="E11" s="32">
-        <f>(C11+D11)/2</f>
+        <f t="shared" si="1"/>
         <v>0.93717500000000009</v>
       </c>
       <c r="F11" s="5"/>
@@ -2270,7 +2270,7 @@
         <v>0.98538999999999999</v>
       </c>
       <c r="E12" s="32">
-        <f>(C12+D12)/2</f>
+        <f t="shared" si="1"/>
         <v>0.93847499999999995</v>
       </c>
       <c r="F12" s="5"/>
@@ -2286,7 +2286,7 @@
         <v>0.98119000000000001</v>
       </c>
       <c r="E13" s="34">
-        <f>(C13+D13)/2</f>
+        <f t="shared" si="1"/>
         <v>0.93850999999999996</v>
       </c>
       <c r="F13" s="5"/>
@@ -2302,7 +2302,7 @@
         <v>0.97448999999999997</v>
       </c>
       <c r="E14" s="32">
-        <f>(C14+D14)/2</f>
+        <f t="shared" si="1"/>
         <v>0.93710499999999997</v>
       </c>
       <c r="F14" s="5"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="640" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="5840" yWindow="1280" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -598,6 +598,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,11 +1044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-137493168"/>
-        <c:axId val="-124531072"/>
+        <c:axId val="-124387472"/>
+        <c:axId val="-124385424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-137493168"/>
+        <c:axId val="-124387472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-124531072"/>
+        <c:crossAx val="-124385424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-124531072"/>
+        <c:axId val="-124385424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-137493168"/>
+        <c:crossAx val="-124387472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2087,7 +2090,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2177,7 +2180,10 @@
         <f>(C6+D6)/2</f>
         <v>0.93395500000000009</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="36">
+        <f>1-D6</f>
+        <v>1.7329999999999957E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
@@ -2193,7 +2199,10 @@
         <f t="shared" ref="E7:E8" si="0">(C7+D7)/2</f>
         <v>0.93399999999999994</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7:F15" si="1">1-D7</f>
+        <v>3.4699999999999953E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
@@ -2209,7 +2218,10 @@
         <f t="shared" si="0"/>
         <v>0.93741999999999992</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="36">
+        <f t="shared" si="1"/>
+        <v>1.5650000000000053E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
@@ -2222,10 +2234,13 @@
         <v>0.98416000000000003</v>
       </c>
       <c r="E9" s="32">
-        <f t="shared" ref="E9:E14" si="1">(C9+D9)/2</f>
+        <f t="shared" ref="E9:E14" si="2">(C9+D9)/2</f>
         <v>0.93788500000000008</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="36">
+        <f t="shared" si="1"/>
+        <v>1.5839999999999965E-2</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
@@ -2238,10 +2253,13 @@
         <v>0.98192000000000002</v>
       </c>
       <c r="E10" s="32">
+        <f t="shared" si="2"/>
+        <v>0.93735499999999994</v>
+      </c>
+      <c r="F10" s="36">
         <f t="shared" si="1"/>
-        <v>0.93735499999999994</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>1.8079999999999985E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
@@ -2254,10 +2272,13 @@
         <v>0.98582000000000003</v>
       </c>
       <c r="E11" s="32">
+        <f t="shared" si="2"/>
+        <v>0.93717500000000009</v>
+      </c>
+      <c r="F11" s="36">
         <f t="shared" si="1"/>
-        <v>0.93717500000000009</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>1.417999999999997E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
@@ -2270,10 +2291,13 @@
         <v>0.98538999999999999</v>
       </c>
       <c r="E12" s="32">
+        <f t="shared" si="2"/>
+        <v>0.93847499999999995</v>
+      </c>
+      <c r="F12" s="36">
         <f t="shared" si="1"/>
-        <v>0.93847499999999995</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>1.4610000000000012E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
@@ -2286,10 +2310,13 @@
         <v>0.98119000000000001</v>
       </c>
       <c r="E13" s="34">
+        <f t="shared" si="2"/>
+        <v>0.93850999999999996</v>
+      </c>
+      <c r="F13" s="36">
         <f t="shared" si="1"/>
-        <v>0.93850999999999996</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>1.8809999999999993E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
@@ -2302,10 +2329,13 @@
         <v>0.97448999999999997</v>
       </c>
       <c r="E14" s="32">
+        <f t="shared" si="2"/>
+        <v>0.93710499999999997</v>
+      </c>
+      <c r="F14" s="36">
         <f t="shared" si="1"/>
-        <v>0.93710499999999997</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>2.5510000000000033E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
@@ -2321,7 +2351,10 @@
       <c r="E15" s="32">
         <v>0.93772500000000003</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="36">
+        <f t="shared" si="1"/>
+        <v>2.8789999999999982E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:5" ht="38" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1280" windowWidth="21220" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="7260" yWindow="640" windowWidth="13220" windowHeight="13600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
     <sheet name="linear2" sheetId="3" r:id="rId2"/>
     <sheet name="heter" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">linear2!$A$1:$G$73</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>aside</t>
   </si>
@@ -395,6 +396,15 @@
   </si>
   <si>
     <t>dl9</t>
+  </si>
+  <si>
+    <t>27 real plots</t>
+  </si>
+  <si>
+    <t>white test 5%</t>
+  </si>
+  <si>
+    <t>white test 2%</t>
   </si>
 </sst>
 </file>
@@ -509,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -601,6 +611,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,11 +1060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-124387472"/>
-        <c:axId val="-124385424"/>
+        <c:axId val="-120037680"/>
+        <c:axId val="-120035360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-124387472"/>
+        <c:axId val="-120037680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-124385424"/>
+        <c:crossAx val="-120035360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +1115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-124385424"/>
+        <c:axId val="-120035360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-124387472"/>
+        <c:crossAx val="-120037680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2087,10 +2103,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4330,10 +4346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4342,7 +4358,8 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="29" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4397,9 +4414,8 @@
         <f>19/29</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="G3" s="22">
-        <f>13/23</f>
-        <v>0.56521739130434778</v>
+      <c r="G3" s="37">
+        <v>0.5</v>
       </c>
       <c r="H3" s="21">
         <v>0.85528999999999999</v>
@@ -4432,7 +4448,7 @@
         <v>0.90438499999999999</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -4456,8 +4472,8 @@
       <c r="F5" s="22">
         <v>0.75862070000000004</v>
       </c>
-      <c r="G5" s="22">
-        <v>0.93103449999999999</v>
+      <c r="G5" s="37">
+        <v>0.92592589999999997</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -4481,8 +4497,8 @@
       <c r="F6" s="21">
         <v>0.75862070000000004</v>
       </c>
-      <c r="G6" s="21">
-        <v>0.96551719999999996</v>
+      <c r="G6" s="37">
+        <v>0.92592589999999997</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -4506,9 +4522,7 @@
       <c r="F7" s="22">
         <v>0.7241379</v>
       </c>
-      <c r="G7" s="22">
-        <v>0.89655169999999995</v>
-      </c>
+      <c r="G7" s="37"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -4525,9 +4539,8 @@
         <f>15/23</f>
         <v>0.65217391304347827</v>
       </c>
-      <c r="G8" s="22">
-        <f>14/23</f>
-        <v>0.60869565217391308</v>
+      <c r="G8" s="37">
+        <v>0.62962960000000001</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -4537,7 +4550,110 @@
     <row r="10" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="23"/>
     </row>
+    <row r="12" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="23">
+        <f>1-D5</f>
+        <v>1.5819999999999945E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>27</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.92592589999999997</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>27</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.62962960000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>27</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.62962960000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>27</v>
+      </c>
+      <c r="E16" s="37">
+        <f>C16/D16</f>
+        <v>0.59259259259259256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27</v>
+      </c>
+      <c r="E17" s="37">
+        <f>C17/D17</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>